--- a/data/mountain.xlsx
+++ b/data/mountain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/walker/Library/CloudStorage/GoogleDrive-walker@maine.edu/My Drive/Github projects/Bike Geometry Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{524FCF50-2FBC-BC49-BE35-85A69F489A6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053CEC44-AFF2-2748-A534-FEB642FF83DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6260" yWindow="780" windowWidth="27640" windowHeight="16440" activeTab="3" xr2:uid="{7F4EF72F-20E3-5949-863E-8288BFE4110E}"/>
+    <workbookView xWindow="6260" yWindow="780" windowWidth="27640" windowHeight="16440" activeTab="2" xr2:uid="{7F4EF72F-20E3-5949-863E-8288BFE4110E}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="3" r:id="rId1"/>
@@ -19,6 +19,9 @@
     <sheet name="Trek Procaliber 2019" sheetId="4" r:id="rId4"/>
     <sheet name="Trek Procaliber 2023" sheetId="5" r:id="rId5"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -759,6 +762,234 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="bikeinsights"/>
+      <sheetName val="Alchemy Rogue 2022"/>
+      <sheetName val="All-City Cosmic Stallion 2022"/>
+      <sheetName val="All-City Gorilla Monsoon 2022"/>
+      <sheetName val="Alle Bike MB31 Bramley 2022"/>
+      <sheetName val="Amigo Bug Out 2022"/>
+      <sheetName val="Argonaut GR3 2023"/>
+      <sheetName val="Bearclaw Beaux Jaxon 2022"/>
+      <sheetName val="Blackheart All Road TI 2022"/>
+      <sheetName val="BlackMtnCy La Cabra 2022"/>
+      <sheetName val="BlackMtnCy Monstercross V5 2022"/>
+      <sheetName val="Bombtrack Beyond 2 2022"/>
+      <sheetName val="Bombtrack Beyond+ Adv 2022"/>
+      <sheetName val="Bombtrack Hook 2022"/>
+      <sheetName val="BMC URS AL 2022"/>
+      <sheetName val="BMC URS AL SUS 2022"/>
+      <sheetName val="BMC URS One 2022"/>
+      <sheetName val="Breezer Radar X Pro 2022"/>
+      <sheetName val="Calfee"/>
+      <sheetName val="Cannondale SuperSix Evo 2022"/>
+      <sheetName val="Canyon Grail 7 1by 2022"/>
+      <sheetName val="Canyon Grail SL 2022"/>
+      <sheetName val="Canyon Grizl 7 1by 2022"/>
+      <sheetName val="Cervelo Aspero 2022"/>
+      <sheetName val="Chiru Kegeti 2022"/>
+      <sheetName val="Chumba Terlingua steel fdo 2022"/>
+      <sheetName val="Chumba Yaupon 2022"/>
+      <sheetName val="Cinelli Hobootleg Geo 2022"/>
+      <sheetName val="Cotic Cascade 2022"/>
+      <sheetName val="Devinci Hatchet 2022"/>
+      <sheetName val="Enigma Escape Flat-bar 2022"/>
+      <sheetName val="Evil Chamois Hagar GRX 2022"/>
+      <sheetName val="Fezzari Shafer 2022"/>
+      <sheetName val="Fiftyone Assassin short-hi 2022"/>
+      <sheetName val="Fiftyone Assassin long-low 2022"/>
+      <sheetName val="Focus Atlas 8.9 2023"/>
+      <sheetName val="Fustle Causway GR1 2022"/>
+      <sheetName val="Genesis Vagabond 2022"/>
+      <sheetName val="Giant Revolt X pro 1 long 2023"/>
+      <sheetName val="Giant Revolt X pro 1 short 2023"/>
+      <sheetName val="Hudski Doggler Gravel 2022"/>
+      <sheetName val="Ibis Hakka MX 2023"/>
+      <sheetName val="Kanzo Adventure New 2022"/>
+      <sheetName val="Knolly Cache Steel 2022"/>
+      <sheetName val="Kona Sutra ULTD 2022"/>
+      <sheetName val="Lauf Siegla 2022"/>
+      <sheetName val="Light Blue Darwin 2022"/>
+      <sheetName val="Liz Devote Advance 2023"/>
+      <sheetName val="Marin DSX 2 2022"/>
+      <sheetName val="Mason InSearchOf 2022"/>
+      <sheetName val="Merida Silex 2022"/>
+      <sheetName val="Moots Routt ESC 2022"/>
+      <sheetName val="Mosaic GT-1X 2022"/>
+      <sheetName val="Niner RLT 9 RDO 2022"/>
+      <sheetName val="No22 Drifter X 2022"/>
+      <sheetName val="Noble GX 5 2022"/>
+      <sheetName val="Nordest Kutxo 2022"/>
+      <sheetName val="Obed Boundary 2022"/>
+      <sheetName val="OPEN U.P. 2022"/>
+      <sheetName val="Open WI.DE 2022"/>
+      <sheetName val="Orbea Terra M 2023"/>
+      <sheetName val="Orbea Terra H 2023"/>
+      <sheetName val="Otso Fenrir 2022"/>
+      <sheetName val="Otso Waheela C front 2022"/>
+      <sheetName val="Otso Waheela C rear 2022"/>
+      <sheetName val="Otso Warakin Stainless 2022"/>
+      <sheetName val="Panorama Taiga EXP 2022"/>
+      <sheetName val="Pinarello Grevil F 2023"/>
+      <sheetName val="Reeb Sams Pants 2022"/>
+      <sheetName val="Revel Rover 2022"/>
+      <sheetName val="Ribble Gravel SL 2022"/>
+      <sheetName val="Ritchey Outback frameset 2022"/>
+      <sheetName val="Rondo MYLC CF Hi 2022"/>
+      <sheetName val="Rose Backroad XPLR 2022"/>
+      <sheetName val="Rondo MYLC CF Lo 2022"/>
+      <sheetName val="Salsa Cutthroat 2022"/>
+      <sheetName val="Salsa Fargo rear dropout 2022"/>
+      <sheetName val="Salsa Fargo front dropout 2022"/>
+      <sheetName val="Salsa Vaya 2022"/>
+      <sheetName val="Salsa Warbird 2022"/>
+      <sheetName val="Santa Cruz Stigmata 2022"/>
+      <sheetName val="Scott Addict Gravel 10 2022"/>
+      <sheetName val="Shand Stooshie 2022"/>
+      <sheetName val="Solace OM-3 Short 2022"/>
+      <sheetName val="Soma Wolverine 2022"/>
+      <sheetName val="Sonder Camino AL 2022"/>
+      <sheetName val="Specialized Diverge 2022"/>
+      <sheetName val="Specialized Diverge Evo 2022"/>
+      <sheetName val="Specialized Diverge STR 2023"/>
+      <sheetName val="Squid Gravtron 2022"/>
+      <sheetName val="Surly Ghost Grappler 2022"/>
+      <sheetName val="Thesis OB1 2022"/>
+      <sheetName val="Tout Terrain Scrambler 28 2022"/>
+      <sheetName val="Trek Boone 6 2022"/>
+      <sheetName val="Trek Checkpoint SL5 2022"/>
+      <sheetName val="Tumbleweed Stargazer 2022"/>
+      <sheetName val="Ventum GS1 2023"/>
+      <sheetName val="Why R+ V4 2022"/>
+      <sheetName val="Whyte Friston Gravel 2022"/>
+      <sheetName val="Whyte Gisburn 2022"/>
+      <sheetName val="Wilde Rambler SL 2023"/>
+      <sheetName val="Wilier Jena 2022"/>
+      <sheetName val="Wilier Rave SLR 2022"/>
+      <sheetName val="YT Szepter 2023"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="27" refreshError="1"/>
+      <sheetData sheetId="28" refreshError="1"/>
+      <sheetData sheetId="29" refreshError="1"/>
+      <sheetData sheetId="30" refreshError="1"/>
+      <sheetData sheetId="31" refreshError="1"/>
+      <sheetData sheetId="32" refreshError="1"/>
+      <sheetData sheetId="33" refreshError="1"/>
+      <sheetData sheetId="34" refreshError="1"/>
+      <sheetData sheetId="35" refreshError="1"/>
+      <sheetData sheetId="36" refreshError="1"/>
+      <sheetData sheetId="37" refreshError="1"/>
+      <sheetData sheetId="38" refreshError="1"/>
+      <sheetData sheetId="39" refreshError="1"/>
+      <sheetData sheetId="40" refreshError="1"/>
+      <sheetData sheetId="41" refreshError="1"/>
+      <sheetData sheetId="42" refreshError="1"/>
+      <sheetData sheetId="43" refreshError="1"/>
+      <sheetData sheetId="44" refreshError="1"/>
+      <sheetData sheetId="45" refreshError="1"/>
+      <sheetData sheetId="46" refreshError="1"/>
+      <sheetData sheetId="47" refreshError="1"/>
+      <sheetData sheetId="48" refreshError="1"/>
+      <sheetData sheetId="49" refreshError="1"/>
+      <sheetData sheetId="50" refreshError="1"/>
+      <sheetData sheetId="51" refreshError="1"/>
+      <sheetData sheetId="52" refreshError="1"/>
+      <sheetData sheetId="53" refreshError="1"/>
+      <sheetData sheetId="54" refreshError="1"/>
+      <sheetData sheetId="55" refreshError="1"/>
+      <sheetData sheetId="56" refreshError="1"/>
+      <sheetData sheetId="57" refreshError="1"/>
+      <sheetData sheetId="58" refreshError="1"/>
+      <sheetData sheetId="59" refreshError="1"/>
+      <sheetData sheetId="60" refreshError="1"/>
+      <sheetData sheetId="61" refreshError="1"/>
+      <sheetData sheetId="62" refreshError="1"/>
+      <sheetData sheetId="63" refreshError="1"/>
+      <sheetData sheetId="64" refreshError="1"/>
+      <sheetData sheetId="65" refreshError="1"/>
+      <sheetData sheetId="66" refreshError="1"/>
+      <sheetData sheetId="67" refreshError="1"/>
+      <sheetData sheetId="68" refreshError="1"/>
+      <sheetData sheetId="69" refreshError="1"/>
+      <sheetData sheetId="70" refreshError="1"/>
+      <sheetData sheetId="71" refreshError="1"/>
+      <sheetData sheetId="72" refreshError="1"/>
+      <sheetData sheetId="73" refreshError="1"/>
+      <sheetData sheetId="74" refreshError="1"/>
+      <sheetData sheetId="75" refreshError="1"/>
+      <sheetData sheetId="76" refreshError="1"/>
+      <sheetData sheetId="77" refreshError="1"/>
+      <sheetData sheetId="78" refreshError="1"/>
+      <sheetData sheetId="79" refreshError="1"/>
+      <sheetData sheetId="80" refreshError="1"/>
+      <sheetData sheetId="81" refreshError="1"/>
+      <sheetData sheetId="82" refreshError="1"/>
+      <sheetData sheetId="83" refreshError="1"/>
+      <sheetData sheetId="84" refreshError="1"/>
+      <sheetData sheetId="85" refreshError="1"/>
+      <sheetData sheetId="86" refreshError="1"/>
+      <sheetData sheetId="87" refreshError="1"/>
+      <sheetData sheetId="88" refreshError="1"/>
+      <sheetData sheetId="89" refreshError="1"/>
+      <sheetData sheetId="90" refreshError="1"/>
+      <sheetData sheetId="91" refreshError="1"/>
+      <sheetData sheetId="92" refreshError="1"/>
+      <sheetData sheetId="93" refreshError="1"/>
+      <sheetData sheetId="94" refreshError="1"/>
+      <sheetData sheetId="95" refreshError="1"/>
+      <sheetData sheetId="96">
+        <row r="2">
+          <cell r="D2">
+            <v>506</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="97" refreshError="1"/>
+      <sheetData sheetId="98" refreshError="1"/>
+      <sheetData sheetId="99" refreshError="1"/>
+      <sheetData sheetId="100" refreshError="1"/>
+      <sheetData sheetId="101" refreshError="1"/>
+      <sheetData sheetId="102" refreshError="1"/>
+      <sheetData sheetId="103" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1189,7 +1420,7 @@
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2399,8 +2630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{645B082A-C36B-8F42-900D-0EA4FD30DA59}">
   <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2440,12 +2671,12 @@
         <f>B30</f>
         <v>Crank Length</v>
       </c>
-      <c r="C2" s="7">
-        <f t="shared" ref="C2:G2" si="0">IF(RIGHT(C30,1)="m",VALUE(MID(C30,1,LEN(C30)-2)),VALUE(MID(C30,1,LEN(C30)-1)))</f>
-        <v>165</v>
+      <c r="C2" s="7" t="b">
+        <f>'[1]Ventum GS1 2023'!$D$2=IF(RIGHT(C30,1)="m",VALUE(MID(C30,1,LEN(C30)-2)),VALUE(MID(C30,1,LEN(C30)-1)))</f>
+        <v>0</v>
       </c>
       <c r="D2" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C2:G2" si="0">IF(RIGHT(D30,1)="m",VALUE(MID(D30,1,LEN(D30)-2)),VALUE(MID(D30,1,LEN(D30)-1)))</f>
         <v>170</v>
       </c>
       <c r="E2" s="7">
@@ -3649,7 +3880,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86B69FD6-D54C-D944-B7D6-1F2D0448CAA0}">
   <dimension ref="A1:R57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
@@ -5193,7 +5424,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E6F7009-C2AE-9046-9C57-3B1E87BD1A83}">
   <dimension ref="A1:S57"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>

--- a/data/mountain.xlsx
+++ b/data/mountain.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/walker/Library/CloudStorage/GoogleDrive-walker@maine.edu/My Drive/Github projects/Bike Geometry Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053CEC44-AFF2-2748-A534-FEB642FF83DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F03C07-9491-3743-8E76-967CA7DBA918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6260" yWindow="780" windowWidth="27640" windowHeight="16440" activeTab="2" xr2:uid="{7F4EF72F-20E3-5949-863E-8288BFE4110E}"/>
+    <workbookView xWindow="12560" yWindow="-19860" windowWidth="27640" windowHeight="16440" xr2:uid="{7F4EF72F-20E3-5949-863E-8288BFE4110E}"/>
   </bookViews>
   <sheets>
-    <sheet name="template" sheetId="3" r:id="rId1"/>
+    <sheet name="Cannondale Scalpel HT 100 2023" sheetId="6" r:id="rId1"/>
     <sheet name="Specialized Epic Hardtail 2023" sheetId="1" r:id="rId2"/>
     <sheet name="Specialized Epic Hardtail 2019" sheetId="2" r:id="rId3"/>
     <sheet name="Trek Procaliber 2019" sheetId="4" r:id="rId4"/>
@@ -22,7 +22,7 @@
   <externalReferences>
     <externalReference r:id="rId6"/>
   </externalReferences>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="232">
   <si>
     <t>Reach</t>
   </si>
@@ -640,13 +640,142 @@
   </si>
   <si>
     <t>seat_tube_angle_actual</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>carbon</t>
+  </si>
+  <si>
+    <t>bottom_bracket_height</t>
+  </si>
+  <si>
+    <t>Frame Size</t>
+  </si>
+  <si>
+    <t>Wheel Size</t>
+  </si>
+  <si>
+    <t>A Seat Tube Length (cm)</t>
+  </si>
+  <si>
+    <t>B Top Tube Horizontal (cm)</t>
+  </si>
+  <si>
+    <t>Cannondale Scalpel HT Carbon 2</t>
+  </si>
+  <si>
+    <t>https://www.cannondale.com/en-us/bikes/mountain/cross-country/scalpel-ht/scalpel-ht-carbon-2</t>
+  </si>
+  <si>
+    <t>SM</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>LG</t>
+  </si>
+  <si>
+    <t>C Head Tube Angle</t>
+  </si>
+  <si>
+    <t>D Seat Tube Angle</t>
+  </si>
+  <si>
+    <t>D Seat Tube Angle Effective</t>
+  </si>
+  <si>
+    <t>E Standover (cm)</t>
+  </si>
+  <si>
+    <t>F Head Tube Length (cm)</t>
+  </si>
+  <si>
+    <t>G Wheelbase (cm)</t>
+  </si>
+  <si>
+    <t>H Front Center (cm)</t>
+  </si>
+  <si>
+    <t>I Chain Stay Length (cm)</t>
+  </si>
+  <si>
+    <t>J Bottom Bracket Drop (cm)</t>
+  </si>
+  <si>
+    <t>K Bottom Bracket Height (cm)</t>
+  </si>
+  <si>
+    <t>L Fork Rake (cm)</t>
+  </si>
+  <si>
+    <t>M Trail (cm)</t>
+  </si>
+  <si>
+    <t>N Stack (cm)</t>
+  </si>
+  <si>
+    <t>O Reach (cm)</t>
+  </si>
+  <si>
+    <r>
+      <t>@Html.Sitecore().DictionaryEx("/PDP/Sizing/Size", "Size*"):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF222222"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>MD</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>@Html.Sitecore().DictionaryEx("/PDP/Sizing/Size", "Size*"):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF222222"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>LG</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>@Html.Sitecore().DictionaryEx("/PDP/Sizing/Size", "Size*"):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF222222"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>XL</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -709,6 +838,37 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Futura Medium"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF222222"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF222222"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Futura Medium"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -731,21 +891,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="15" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -762,6 +924,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>119529</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>330200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3072D3EE-FC19-0CB9-E268-A67243B7C341}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11582400" y="0"/>
+          <a:ext cx="6723529" cy="10058400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1288,130 +1499,1154 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BBEC3E-B754-AA44-AF11-2057D209C7B0}">
-  <dimension ref="A1:A22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D8E079B-4239-694A-80A5-F2C2D3076D2A}">
+  <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35" style="11" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="20">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="K1" s="15"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2" s="12">
+        <v>45102</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" ht="20">
-      <c r="A2" s="1" t="s">
+      <c r="B5" s="10" t="str">
+        <f>B33</f>
+        <v>Frame Size</v>
+      </c>
+      <c r="C5" s="10" t="str">
+        <f>C33</f>
+        <v>SM</v>
+      </c>
+      <c r="D5" s="10" t="str">
+        <f t="shared" ref="D5:F5" si="0">D33</f>
+        <v>MD</v>
+      </c>
+      <c r="E5" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>LG</v>
+      </c>
+      <c r="F5" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>XL</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="10" t="str">
+        <f t="shared" ref="B6:B22" si="1">B34</f>
+        <v>Wheel Size</v>
+      </c>
+      <c r="C6" s="10">
+        <f>VALUE(LEFT(C34,3))</f>
+        <v>29</v>
+      </c>
+      <c r="D6" s="10">
+        <f t="shared" ref="D6:I6" si="2">VALUE(LEFT(D34,3))</f>
+        <v>29</v>
+      </c>
+      <c r="E6" s="10">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="F6" s="10">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>A Seat Tube Length (cm)</v>
+      </c>
+      <c r="C7" s="10">
+        <f>C35*10</f>
+        <v>390</v>
+      </c>
+      <c r="D7" s="10">
+        <f t="shared" ref="D7:I9" si="3">D35*10</f>
+        <v>440</v>
+      </c>
+      <c r="E7" s="10">
+        <f t="shared" si="3"/>
+        <v>480</v>
+      </c>
+      <c r="F7" s="10">
+        <f t="shared" si="3"/>
+        <v>530</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>B Top Tube Horizontal (cm)</v>
+      </c>
+      <c r="C8" s="10">
+        <f>C36*10</f>
+        <v>571</v>
+      </c>
+      <c r="D8" s="10">
+        <f t="shared" si="3"/>
+        <v>594</v>
+      </c>
+      <c r="E8" s="10">
+        <f t="shared" si="3"/>
+        <v>617</v>
+      </c>
+      <c r="F8" s="10">
+        <f t="shared" si="3"/>
+        <v>640</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>C Head Tube Angle</v>
+      </c>
+      <c r="C9" s="10">
+        <f>C37</f>
+        <v>67</v>
+      </c>
+      <c r="D9" s="10">
+        <f t="shared" ref="D9:F9" si="4">D37</f>
+        <v>67</v>
+      </c>
+      <c r="E9" s="10">
+        <f t="shared" si="4"/>
+        <v>67</v>
+      </c>
+      <c r="F9" s="10">
+        <f t="shared" si="4"/>
+        <v>67</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B10" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>D Seat Tube Angle</v>
+      </c>
+      <c r="C10" s="10">
+        <f>VALUE(LEFT(C38,4))</f>
+        <v>73.2</v>
+      </c>
+      <c r="D10" s="10">
+        <f t="shared" ref="D10:I11" si="5">VALUE(LEFT(D38,4))</f>
+        <v>74</v>
+      </c>
+      <c r="E10" s="10">
+        <f t="shared" si="5"/>
+        <v>74.599999999999994</v>
+      </c>
+      <c r="F10" s="10">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>D Seat Tube Angle Effective</v>
+      </c>
+      <c r="C11" s="10">
+        <f>VALUE(LEFT(C39,4))</f>
+        <v>75</v>
+      </c>
+      <c r="D11" s="10">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+      <c r="E11" s="10">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+      <c r="F11" s="10">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>E Standover (cm)</v>
+      </c>
+      <c r="C12" s="10">
+        <f t="shared" ref="C12:I22" si="6">C40*10</f>
+        <v>748</v>
+      </c>
+      <c r="D12" s="10">
+        <f t="shared" si="6"/>
+        <v>785</v>
+      </c>
+      <c r="E12" s="10">
+        <f t="shared" si="6"/>
+        <v>814</v>
+      </c>
+      <c r="F12" s="10">
+        <f t="shared" si="6"/>
+        <v>850</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>F Head Tube Length (cm)</v>
+      </c>
+      <c r="C13" s="10">
+        <f t="shared" si="6"/>
+        <v>99</v>
+      </c>
+      <c r="D13" s="10">
+        <f t="shared" si="6"/>
+        <v>110</v>
+      </c>
+      <c r="E13" s="10">
+        <f t="shared" si="6"/>
+        <v>122</v>
+      </c>
+      <c r="F13" s="10">
+        <f t="shared" si="6"/>
+        <v>135</v>
+      </c>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>G Wheelbase (cm)</v>
+      </c>
+      <c r="C14" s="10">
+        <f t="shared" si="6"/>
+        <v>1124</v>
+      </c>
+      <c r="D14" s="10">
+        <f t="shared" si="6"/>
+        <v>1154</v>
+      </c>
+      <c r="E14" s="10">
+        <f t="shared" si="6"/>
+        <v>1183</v>
+      </c>
+      <c r="F14" s="10">
+        <f t="shared" si="6"/>
+        <v>1214</v>
+      </c>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>H Front Center (cm)</v>
+      </c>
+      <c r="C15" s="10">
+        <f t="shared" si="6"/>
+        <v>702</v>
+      </c>
+      <c r="D15" s="10">
+        <f t="shared" si="6"/>
+        <v>726</v>
+      </c>
+      <c r="E15" s="10">
+        <f t="shared" si="6"/>
+        <v>750</v>
+      </c>
+      <c r="F15" s="10">
+        <f t="shared" si="6"/>
+        <v>776</v>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>I Chain Stay Length (cm)</v>
+      </c>
+      <c r="C16" s="10">
+        <f t="shared" si="6"/>
+        <v>430</v>
+      </c>
+      <c r="D16" s="10">
+        <f t="shared" si="6"/>
+        <v>435</v>
+      </c>
+      <c r="E16" s="10">
+        <f t="shared" si="6"/>
+        <v>440</v>
+      </c>
+      <c r="F16" s="10">
+        <f t="shared" si="6"/>
+        <v>445</v>
+      </c>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>J Bottom Bracket Drop (cm)</v>
+      </c>
+      <c r="C17" s="10">
+        <f t="shared" si="6"/>
+        <v>62</v>
+      </c>
+      <c r="D17" s="10">
+        <f t="shared" si="6"/>
+        <v>62</v>
+      </c>
+      <c r="E17" s="10">
+        <f t="shared" si="6"/>
+        <v>62</v>
+      </c>
+      <c r="F17" s="10">
+        <f t="shared" si="6"/>
+        <v>62</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="B18" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>K Bottom Bracket Height (cm)</v>
+      </c>
+      <c r="C18" s="10">
+        <f t="shared" si="6"/>
+        <v>315</v>
+      </c>
+      <c r="D18" s="10">
+        <f t="shared" si="6"/>
+        <v>315</v>
+      </c>
+      <c r="E18" s="10">
+        <f t="shared" si="6"/>
+        <v>315</v>
+      </c>
+      <c r="F18" s="10">
+        <f t="shared" si="6"/>
+        <v>315</v>
+      </c>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>L Fork Rake (cm)</v>
+      </c>
+      <c r="C19" s="10">
+        <f t="shared" si="6"/>
+        <v>55</v>
+      </c>
+      <c r="D19" s="10">
+        <f t="shared" si="6"/>
+        <v>55</v>
+      </c>
+      <c r="E19" s="10">
+        <f t="shared" si="6"/>
+        <v>55</v>
+      </c>
+      <c r="F19" s="10">
+        <f t="shared" si="6"/>
+        <v>55</v>
+      </c>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>M Trail (cm)</v>
+      </c>
+      <c r="C20" s="10">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="D20" s="10">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="E20" s="10">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="F20" s="10">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" ht="20">
-      <c r="A3" s="1" t="s">
+      <c r="B21" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>N Stack (cm)</v>
+      </c>
+      <c r="C21" s="10">
+        <f t="shared" si="6"/>
+        <v>600</v>
+      </c>
+      <c r="D21" s="10">
+        <f t="shared" si="6"/>
+        <v>612</v>
+      </c>
+      <c r="E21" s="10">
+        <f t="shared" si="6"/>
+        <v>623</v>
+      </c>
+      <c r="F21" s="10">
+        <f t="shared" si="6"/>
+        <v>635</v>
+      </c>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" ht="20">
-      <c r="A4" s="1" t="s">
+      <c r="B22" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>O Reach (cm)</v>
+      </c>
+      <c r="C22" s="10">
+        <f t="shared" si="6"/>
+        <v>410</v>
+      </c>
+      <c r="D22" s="10">
+        <f t="shared" si="6"/>
+        <v>430</v>
+      </c>
+      <c r="E22" s="10">
+        <f t="shared" si="6"/>
+        <v>450</v>
+      </c>
+      <c r="F22" s="10">
+        <f t="shared" si="6"/>
+        <v>470</v>
+      </c>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="10">
+        <f>2.25*2.54</f>
+        <v>5.7149999999999999</v>
+      </c>
+      <c r="D26" s="10">
+        <f t="shared" ref="D26:I26" si="7">2.25*2.54</f>
+        <v>5.7149999999999999</v>
+      </c>
+      <c r="E26" s="10">
+        <f t="shared" si="7"/>
+        <v>5.7149999999999999</v>
+      </c>
+      <c r="F26" s="10">
+        <f t="shared" si="7"/>
+        <v>5.7149999999999999</v>
+      </c>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="13">
+        <v>154</v>
+      </c>
+      <c r="D28" s="13">
+        <v>162</v>
+      </c>
+      <c r="E28" s="13">
+        <v>172</v>
+      </c>
+      <c r="F28" s="13">
+        <v>180</v>
+      </c>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="13">
+        <v>165</v>
+      </c>
+      <c r="D29" s="13">
+        <v>175</v>
+      </c>
+      <c r="E29" s="13">
+        <v>182</v>
+      </c>
+      <c r="F29" s="13">
+        <v>195</v>
+      </c>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+    </row>
+    <row r="33" spans="1:9" ht="31" customHeight="1">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+    </row>
+    <row r="34" spans="1:9" ht="31" customHeight="1">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="C34" s="11">
+        <v>29</v>
+      </c>
+      <c r="D34" s="10">
+        <v>29</v>
+      </c>
+      <c r="E34" s="10">
+        <v>29</v>
+      </c>
+      <c r="F34" s="10">
+        <v>29</v>
+      </c>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+    </row>
+    <row r="35" spans="1:9" ht="31" customHeight="1">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C35" s="11">
+        <v>39</v>
+      </c>
+      <c r="D35" s="10">
+        <v>44</v>
+      </c>
+      <c r="E35" s="10">
+        <v>48</v>
+      </c>
+      <c r="F35" s="10">
+        <v>53</v>
+      </c>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+    </row>
+    <row r="36" spans="1:9" ht="31" customHeight="1">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="C36" s="11">
+        <v>57.1</v>
+      </c>
+      <c r="D36" s="10">
+        <v>59.4</v>
+      </c>
+      <c r="E36" s="10">
+        <v>61.7</v>
+      </c>
+      <c r="F36" s="10">
+        <v>64</v>
+      </c>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+    </row>
+    <row r="37" spans="1:9" ht="31" customHeight="1">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="C37" s="11">
+        <v>67</v>
+      </c>
+      <c r="D37" s="10">
+        <v>67</v>
+      </c>
+      <c r="E37" s="10">
+        <v>67</v>
+      </c>
+      <c r="F37" s="10">
+        <v>67</v>
+      </c>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+    </row>
+    <row r="38" spans="1:9" ht="31" customHeight="1">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="C38" s="11">
+        <v>73.2</v>
+      </c>
+      <c r="D38" s="10">
+        <v>74</v>
+      </c>
+      <c r="E38" s="10">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="F38" s="10">
+        <v>75</v>
+      </c>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+    </row>
+    <row r="39" spans="1:9" ht="31" customHeight="1">
+      <c r="A39" s="10"/>
+      <c r="B39" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="C39" s="11">
+        <v>75</v>
+      </c>
+      <c r="D39" s="10">
+        <v>75</v>
+      </c>
+      <c r="E39" s="10">
+        <v>75</v>
+      </c>
+      <c r="F39" s="10">
+        <v>75</v>
+      </c>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+    </row>
+    <row r="40" spans="1:9" ht="31" customHeight="1">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C40" s="11">
+        <v>74.8</v>
+      </c>
+      <c r="D40" s="10">
+        <v>78.5</v>
+      </c>
+      <c r="E40" s="10">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="F40" s="10">
+        <v>85</v>
+      </c>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+    </row>
+    <row r="41" spans="1:9" ht="31" customHeight="1">
+      <c r="A41" s="10"/>
+      <c r="B41" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="C41" s="11">
+        <v>9.9</v>
+      </c>
+      <c r="D41" s="10">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" ht="20">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="20">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="20">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="20">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="20">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="20">
-      <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="20">
-      <c r="A11" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="20">
-      <c r="A12" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="20">
-      <c r="A13" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="20">
-      <c r="A14" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" ht="20">
-      <c r="A15" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="20">
-      <c r="A16" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="20">
-      <c r="A17" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="20">
-      <c r="A18" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="20">
-      <c r="A19" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="20">
-      <c r="A20" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="20">
-      <c r="A21" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="20">
-      <c r="A22" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="E41" s="10">
+        <v>12.2</v>
+      </c>
+      <c r="F41" s="10">
+        <v>13.5</v>
+      </c>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+    </row>
+    <row r="42" spans="1:9" ht="31" customHeight="1">
+      <c r="A42" s="10"/>
+      <c r="B42" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="C42" s="11">
+        <v>112.4</v>
+      </c>
+      <c r="D42" s="10">
+        <v>115.4</v>
+      </c>
+      <c r="E42" s="10">
+        <v>118.3</v>
+      </c>
+      <c r="F42" s="10">
+        <v>121.4</v>
+      </c>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+    </row>
+    <row r="43" spans="1:9" ht="31" customHeight="1">
+      <c r="A43" s="10"/>
+      <c r="B43" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="C43" s="11">
+        <v>70.2</v>
+      </c>
+      <c r="D43" s="10">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="E43" s="10">
+        <v>75</v>
+      </c>
+      <c r="F43" s="10">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+    </row>
+    <row r="44" spans="1:9" ht="31" customHeight="1">
+      <c r="A44" s="10"/>
+      <c r="B44" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C44" s="11">
+        <v>43</v>
+      </c>
+      <c r="D44" s="10">
+        <v>43.5</v>
+      </c>
+      <c r="E44" s="10">
+        <v>44</v>
+      </c>
+      <c r="F44" s="10">
+        <v>44.5</v>
+      </c>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+    </row>
+    <row r="45" spans="1:9" ht="31" customHeight="1">
+      <c r="A45" s="10"/>
+      <c r="B45" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="C45" s="11">
+        <v>6.2</v>
+      </c>
+      <c r="D45" s="11">
+        <v>6.2</v>
+      </c>
+      <c r="E45" s="10">
+        <v>6.2</v>
+      </c>
+      <c r="F45" s="10">
+        <v>6.2</v>
+      </c>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+    </row>
+    <row r="46" spans="1:9" ht="31" customHeight="1">
+      <c r="A46" s="10"/>
+      <c r="B46" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="C46" s="11">
+        <v>31.5</v>
+      </c>
+      <c r="D46" s="10">
+        <v>31.5</v>
+      </c>
+      <c r="E46" s="10">
+        <v>31.5</v>
+      </c>
+      <c r="F46" s="10">
+        <v>31.5</v>
+      </c>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+    </row>
+    <row r="47" spans="1:9" ht="31" customHeight="1">
+      <c r="A47" s="10"/>
+      <c r="B47" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="C47" s="11">
+        <v>5.5</v>
+      </c>
+      <c r="D47" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="E47" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="F47" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+    </row>
+    <row r="48" spans="1:9" ht="31" customHeight="1">
+      <c r="A48" s="10"/>
+      <c r="B48" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="C48" s="11">
+        <v>10</v>
+      </c>
+      <c r="D48" s="10">
+        <v>10</v>
+      </c>
+      <c r="E48" s="10">
+        <v>10</v>
+      </c>
+      <c r="F48" s="10">
+        <v>10</v>
+      </c>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+    </row>
+    <row r="49" spans="1:9" ht="31" customHeight="1">
+      <c r="A49" s="10"/>
+      <c r="B49" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="C49" s="11">
+        <v>60</v>
+      </c>
+      <c r="D49" s="10">
+        <v>61.2</v>
+      </c>
+      <c r="E49" s="10">
+        <v>62.3</v>
+      </c>
+      <c r="F49" s="10">
+        <v>63.5</v>
+      </c>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+    </row>
+    <row r="50" spans="1:9" ht="31" customHeight="1">
+      <c r="A50" s="10"/>
+      <c r="B50" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C50" s="11">
+        <v>41</v>
+      </c>
+      <c r="D50" s="10">
+        <v>43</v>
+      </c>
+      <c r="E50" s="10">
+        <v>45</v>
+      </c>
+      <c r="F50" s="10">
+        <v>47</v>
+      </c>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="C53" s="13" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="C56" s="14" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="C59" s="14" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="C62" s="14" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="14"/>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="14"/>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1433,22 +2668,22 @@
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1456,28 +2691,28 @@
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="7" t="str">
-        <f>B33</f>
+      <c r="B2" s="6" t="str">
+        <f t="shared" ref="B2:B22" si="0">B33</f>
         <v>Crank Length</v>
       </c>
-      <c r="C2" s="7">
-        <f>IF(RIGHT(C33,1)="m",VALUE(MID(C33,1,LEN(C33)-2)),VALUE(MID(C33,1,LEN(C33)-1)))</f>
+      <c r="C2" s="6">
+        <f t="shared" ref="C2:C22" si="1">IF(RIGHT(C33,1)="m",VALUE(MID(C33,1,LEN(C33)-2)),VALUE(MID(C33,1,LEN(C33)-1)))</f>
         <v>165</v>
       </c>
-      <c r="D2" s="7">
-        <f t="shared" ref="D2:G2" si="0">IF(RIGHT(D33,1)="m",VALUE(MID(D33,1,LEN(D33)-2)),VALUE(MID(D33,1,LEN(D33)-1)))</f>
+      <c r="D2" s="6">
+        <f t="shared" ref="D2:G2" si="2">IF(RIGHT(D33,1)="m",VALUE(MID(D33,1,LEN(D33)-2)),VALUE(MID(D33,1,LEN(D33)-1)))</f>
         <v>170</v>
       </c>
-      <c r="E2" s="7">
-        <f t="shared" si="0"/>
+      <c r="E2" s="6">
+        <f t="shared" si="2"/>
         <v>175</v>
       </c>
-      <c r="F2" s="7">
-        <f t="shared" si="0"/>
+      <c r="F2" s="6">
+        <f t="shared" si="2"/>
         <v>175</v>
       </c>
-      <c r="G2" s="7">
-        <f t="shared" si="0"/>
+      <c r="G2" s="6">
+        <f t="shared" si="2"/>
         <v>175</v>
       </c>
     </row>
@@ -1485,28 +2720,28 @@
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="7" t="str">
-        <f>B34</f>
+      <c r="B3" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>Handlebar Width</v>
       </c>
-      <c r="C3" s="7">
-        <f>IF(RIGHT(C34,1)="m",VALUE(MID(C34,1,LEN(C34)-2)),VALUE(MID(C34,1,LEN(C34)-1)))</f>
+      <c r="C3" s="6">
+        <f t="shared" si="1"/>
         <v>750</v>
       </c>
-      <c r="D3" s="7">
-        <f>IF(RIGHT(D34,1)="m",VALUE(MID(D34,1,LEN(D34)-2)),VALUE(MID(D34,1,LEN(D34)-1)))</f>
+      <c r="D3" s="6">
+        <f t="shared" ref="D3:G22" si="3">IF(RIGHT(D34,1)="m",VALUE(MID(D34,1,LEN(D34)-2)),VALUE(MID(D34,1,LEN(D34)-1)))</f>
         <v>750</v>
       </c>
-      <c r="E3" s="7">
-        <f>IF(RIGHT(E34,1)="m",VALUE(MID(E34,1,LEN(E34)-2)),VALUE(MID(E34,1,LEN(E34)-1)))</f>
+      <c r="E3" s="6">
+        <f t="shared" si="3"/>
         <v>750</v>
       </c>
-      <c r="F3" s="7">
-        <f>IF(RIGHT(F34,1)="m",VALUE(MID(F34,1,LEN(F34)-2)),VALUE(MID(F34,1,LEN(F34)-1)))</f>
+      <c r="F3" s="6">
+        <f t="shared" si="3"/>
         <v>750</v>
       </c>
-      <c r="G3" s="7">
-        <f>IF(RIGHT(G34,1)="m",VALUE(MID(G34,1,LEN(G34)-2)),VALUE(MID(G34,1,LEN(G34)-1)))</f>
+      <c r="G3" s="6">
+        <f t="shared" si="3"/>
         <v>750</v>
       </c>
     </row>
@@ -1514,28 +2749,28 @@
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="7" t="str">
-        <f>B35</f>
+      <c r="B4" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>Stem Length</v>
       </c>
-      <c r="C4" s="7">
-        <f>IF(RIGHT(C35,1)="m",VALUE(MID(C35,1,LEN(C35)-2)),VALUE(MID(C35,1,LEN(C35)-1)))</f>
+      <c r="C4" s="6">
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="D4" s="7">
-        <f>IF(RIGHT(D35,1)="m",VALUE(MID(D35,1,LEN(D35)-2)),VALUE(MID(D35,1,LEN(D35)-1)))</f>
+      <c r="D4" s="6">
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="E4" s="7">
-        <f>IF(RIGHT(E35,1)="m",VALUE(MID(E35,1,LEN(E35)-2)),VALUE(MID(E35,1,LEN(E35)-1)))</f>
+      <c r="E4" s="6">
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="F4" s="7">
-        <f>IF(RIGHT(F35,1)="m",VALUE(MID(F35,1,LEN(F35)-2)),VALUE(MID(F35,1,LEN(F35)-1)))</f>
+      <c r="F4" s="6">
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="G4" s="7">
-        <f>IF(RIGHT(G35,1)="m",VALUE(MID(G35,1,LEN(G35)-2)),VALUE(MID(G35,1,LEN(G35)-1)))</f>
+      <c r="G4" s="6">
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
     </row>
@@ -1543,28 +2778,28 @@
       <c r="A5" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B5" s="7" t="str">
-        <f>B36</f>
+      <c r="B5" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>Saddle Width</v>
       </c>
-      <c r="C5" s="7">
-        <f>IF(RIGHT(C36,1)="m",VALUE(MID(C36,1,LEN(C36)-2)),VALUE(MID(C36,1,LEN(C36)-1)))</f>
+      <c r="C5" s="6">
+        <f t="shared" si="1"/>
         <v>155</v>
       </c>
-      <c r="D5" s="7">
-        <f>IF(RIGHT(D36,1)="m",VALUE(MID(D36,1,LEN(D36)-2)),VALUE(MID(D36,1,LEN(D36)-1)))</f>
+      <c r="D5" s="6">
+        <f t="shared" si="3"/>
         <v>155</v>
       </c>
-      <c r="E5" s="7">
-        <f>IF(RIGHT(E36,1)="m",VALUE(MID(E36,1,LEN(E36)-2)),VALUE(MID(E36,1,LEN(E36)-1)))</f>
+      <c r="E5" s="6">
+        <f t="shared" si="3"/>
         <v>143</v>
       </c>
-      <c r="F5" s="7">
-        <f>IF(RIGHT(F36,1)="m",VALUE(MID(F36,1,LEN(F36)-2)),VALUE(MID(F36,1,LEN(F36)-1)))</f>
+      <c r="F5" s="6">
+        <f t="shared" si="3"/>
         <v>143</v>
       </c>
-      <c r="G5" s="7">
-        <f>IF(RIGHT(G36,1)="m",VALUE(MID(G36,1,LEN(G36)-2)),VALUE(MID(G36,1,LEN(G36)-1)))</f>
+      <c r="G5" s="6">
+        <f t="shared" si="3"/>
         <v>143</v>
       </c>
     </row>
@@ -1572,28 +2807,28 @@
       <c r="A6" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B6" s="7" t="str">
-        <f>B37</f>
+      <c r="B6" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>Seatpost Length</v>
       </c>
-      <c r="C6" s="7">
-        <f>IF(RIGHT(C37,1)="m",VALUE(MID(C37,1,LEN(C37)-2)),VALUE(MID(C37,1,LEN(C37)-1)))</f>
+      <c r="C6" s="6">
+        <f t="shared" si="1"/>
         <v>350</v>
       </c>
-      <c r="D6" s="7">
-        <f>IF(RIGHT(D37,1)="m",VALUE(MID(D37,1,LEN(D37)-2)),VALUE(MID(D37,1,LEN(D37)-1)))</f>
+      <c r="D6" s="6">
+        <f t="shared" si="3"/>
         <v>350</v>
       </c>
-      <c r="E6" s="7">
-        <f>IF(RIGHT(E37,1)="m",VALUE(MID(E37,1,LEN(E37)-2)),VALUE(MID(E37,1,LEN(E37)-1)))</f>
+      <c r="E6" s="6">
+        <f t="shared" si="3"/>
         <v>400</v>
       </c>
-      <c r="F6" s="7">
-        <f>IF(RIGHT(F37,1)="m",VALUE(MID(F37,1,LEN(F37)-2)),VALUE(MID(F37,1,LEN(F37)-1)))</f>
+      <c r="F6" s="6">
+        <f t="shared" si="3"/>
         <v>400</v>
       </c>
-      <c r="G6" s="7">
-        <f>IF(RIGHT(G37,1)="m",VALUE(MID(G37,1,LEN(G37)-2)),VALUE(MID(G37,1,LEN(G37)-1)))</f>
+      <c r="G6" s="6">
+        <f t="shared" si="3"/>
         <v>400</v>
       </c>
     </row>
@@ -1601,28 +2836,28 @@
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="7" t="str">
-        <f>B38</f>
+      <c r="B7" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>Stack</v>
       </c>
-      <c r="C7" s="7">
-        <f>IF(RIGHT(C38,1)="m",VALUE(MID(C38,1,LEN(C38)-2)),VALUE(MID(C38,1,LEN(C38)-1)))</f>
+      <c r="C7" s="6">
+        <f t="shared" si="1"/>
         <v>594</v>
       </c>
-      <c r="D7" s="7">
-        <f>IF(RIGHT(D38,1)="m",VALUE(MID(D38,1,LEN(D38)-2)),VALUE(MID(D38,1,LEN(D38)-1)))</f>
+      <c r="D7" s="6">
+        <f t="shared" si="3"/>
         <v>608</v>
       </c>
-      <c r="E7" s="7">
-        <f>IF(RIGHT(E38,1)="m",VALUE(MID(E38,1,LEN(E38)-2)),VALUE(MID(E38,1,LEN(E38)-1)))</f>
+      <c r="E7" s="6">
+        <f t="shared" si="3"/>
         <v>608</v>
       </c>
-      <c r="F7" s="7">
-        <f>IF(RIGHT(F38,1)="m",VALUE(MID(F38,1,LEN(F38)-2)),VALUE(MID(F38,1,LEN(F38)-1)))</f>
+      <c r="F7" s="6">
+        <f t="shared" si="3"/>
         <v>622</v>
       </c>
-      <c r="G7" s="7">
-        <f>IF(RIGHT(G38,1)="m",VALUE(MID(G38,1,LEN(G38)-2)),VALUE(MID(G38,1,LEN(G38)-1)))</f>
+      <c r="G7" s="6">
+        <f t="shared" si="3"/>
         <v>636</v>
       </c>
     </row>
@@ -1630,28 +2865,28 @@
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="7" t="str">
-        <f>B39</f>
+      <c r="B8" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>Reach</v>
       </c>
-      <c r="C8" s="7">
-        <f>IF(RIGHT(C39,1)="m",VALUE(MID(C39,1,LEN(C39)-2)),VALUE(MID(C39,1,LEN(C39)-1)))</f>
+      <c r="C8" s="6">
+        <f t="shared" si="1"/>
         <v>385</v>
       </c>
-      <c r="D8" s="7">
-        <f>IF(RIGHT(D39,1)="m",VALUE(MID(D39,1,LEN(D39)-2)),VALUE(MID(D39,1,LEN(D39)-1)))</f>
+      <c r="D8" s="6">
+        <f t="shared" si="3"/>
         <v>405</v>
       </c>
-      <c r="E8" s="7">
-        <f>IF(RIGHT(E39,1)="m",VALUE(MID(E39,1,LEN(E39)-2)),VALUE(MID(E39,1,LEN(E39)-1)))</f>
+      <c r="E8" s="6">
+        <f t="shared" si="3"/>
         <v>430</v>
       </c>
-      <c r="F8" s="7">
-        <f>IF(RIGHT(F39,1)="m",VALUE(MID(F39,1,LEN(F39)-2)),VALUE(MID(F39,1,LEN(F39)-1)))</f>
+      <c r="F8" s="6">
+        <f t="shared" si="3"/>
         <v>455</v>
       </c>
-      <c r="G8" s="7">
-        <f>IF(RIGHT(G39,1)="m",VALUE(MID(G39,1,LEN(G39)-2)),VALUE(MID(G39,1,LEN(G39)-1)))</f>
+      <c r="G8" s="6">
+        <f t="shared" si="3"/>
         <v>480</v>
       </c>
     </row>
@@ -1659,28 +2894,28 @@
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="7" t="str">
-        <f>B40</f>
+      <c r="B9" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>Head Tube Length</v>
       </c>
-      <c r="C9" s="7">
-        <f>IF(RIGHT(C40,1)="m",VALUE(MID(C40,1,LEN(C40)-2)),VALUE(MID(C40,1,LEN(C40)-1)))</f>
+      <c r="C9" s="6">
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="D9" s="7">
-        <f>IF(RIGHT(D40,1)="m",VALUE(MID(D40,1,LEN(D40)-2)),VALUE(MID(D40,1,LEN(D40)-1)))</f>
+      <c r="D9" s="6">
+        <f t="shared" si="3"/>
         <v>95</v>
       </c>
-      <c r="E9" s="7">
-        <f>IF(RIGHT(E40,1)="m",VALUE(MID(E40,1,LEN(E40)-2)),VALUE(MID(E40,1,LEN(E40)-1)))</f>
+      <c r="E9" s="6">
+        <f t="shared" si="3"/>
         <v>95</v>
       </c>
-      <c r="F9" s="7">
-        <f>IF(RIGHT(F40,1)="m",VALUE(MID(F40,1,LEN(F40)-2)),VALUE(MID(F40,1,LEN(F40)-1)))</f>
+      <c r="F9" s="6">
+        <f t="shared" si="3"/>
         <v>110</v>
       </c>
-      <c r="G9" s="7">
-        <f>IF(RIGHT(G40,1)="m",VALUE(MID(G40,1,LEN(G40)-2)),VALUE(MID(G40,1,LEN(G40)-1)))</f>
+      <c r="G9" s="6">
+        <f t="shared" si="3"/>
         <v>125</v>
       </c>
     </row>
@@ -1688,28 +2923,28 @@
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="7" t="str">
-        <f>B41</f>
+      <c r="B10" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>Head Tube Angle</v>
       </c>
-      <c r="C10" s="7">
-        <f>IF(RIGHT(C41,1)="m",VALUE(MID(C41,1,LEN(C41)-2)),VALUE(MID(C41,1,LEN(C41)-1)))</f>
+      <c r="C10" s="6">
+        <f t="shared" si="1"/>
         <v>68.5</v>
       </c>
-      <c r="D10" s="7">
-        <f>IF(RIGHT(D41,1)="m",VALUE(MID(D41,1,LEN(D41)-2)),VALUE(MID(D41,1,LEN(D41)-1)))</f>
+      <c r="D10" s="6">
+        <f t="shared" si="3"/>
         <v>68.5</v>
       </c>
-      <c r="E10" s="7">
-        <f>IF(RIGHT(E41,1)="m",VALUE(MID(E41,1,LEN(E41)-2)),VALUE(MID(E41,1,LEN(E41)-1)))</f>
+      <c r="E10" s="6">
+        <f t="shared" si="3"/>
         <v>68.5</v>
       </c>
-      <c r="F10" s="7">
-        <f>IF(RIGHT(F41,1)="m",VALUE(MID(F41,1,LEN(F41)-2)),VALUE(MID(F41,1,LEN(F41)-1)))</f>
+      <c r="F10" s="6">
+        <f t="shared" si="3"/>
         <v>68.5</v>
       </c>
-      <c r="G10" s="7">
-        <f>IF(RIGHT(G41,1)="m",VALUE(MID(G41,1,LEN(G41)-2)),VALUE(MID(G41,1,LEN(G41)-1)))</f>
+      <c r="G10" s="6">
+        <f t="shared" si="3"/>
         <v>68.5</v>
       </c>
     </row>
@@ -1717,28 +2952,28 @@
       <c r="A11" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B11" s="7" t="str">
-        <f>B42</f>
+      <c r="B11" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>BB Height</v>
       </c>
-      <c r="C11" s="7">
-        <f>IF(RIGHT(C42,1)="m",VALUE(MID(C42,1,LEN(C42)-2)),VALUE(MID(C42,1,LEN(C42)-1)))</f>
+      <c r="C11" s="6">
+        <f t="shared" si="1"/>
         <v>309</v>
       </c>
-      <c r="D11" s="7">
-        <f>IF(RIGHT(D42,1)="m",VALUE(MID(D42,1,LEN(D42)-2)),VALUE(MID(D42,1,LEN(D42)-1)))</f>
+      <c r="D11" s="6">
+        <f t="shared" si="3"/>
         <v>309</v>
       </c>
-      <c r="E11" s="7">
-        <f>IF(RIGHT(E42,1)="m",VALUE(MID(E42,1,LEN(E42)-2)),VALUE(MID(E42,1,LEN(E42)-1)))</f>
+      <c r="E11" s="6">
+        <f t="shared" si="3"/>
         <v>309</v>
       </c>
-      <c r="F11" s="7">
-        <f>IF(RIGHT(F42,1)="m",VALUE(MID(F42,1,LEN(F42)-2)),VALUE(MID(F42,1,LEN(F42)-1)))</f>
+      <c r="F11" s="6">
+        <f t="shared" si="3"/>
         <v>309</v>
       </c>
-      <c r="G11" s="7">
-        <f>IF(RIGHT(G42,1)="m",VALUE(MID(G42,1,LEN(G42)-2)),VALUE(MID(G42,1,LEN(G42)-1)))</f>
+      <c r="G11" s="6">
+        <f t="shared" si="3"/>
         <v>309</v>
       </c>
     </row>
@@ -1746,28 +2981,28 @@
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="7" t="str">
-        <f>B43</f>
+      <c r="B12" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>BB Drop</v>
       </c>
-      <c r="C12" s="7">
-        <f>IF(RIGHT(C43,1)="m",VALUE(MID(C43,1,LEN(C43)-2)),VALUE(MID(C43,1,LEN(C43)-1)))</f>
+      <c r="C12" s="6">
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="D12" s="7">
-        <f>IF(RIGHT(D43,1)="m",VALUE(MID(D43,1,LEN(D43)-2)),VALUE(MID(D43,1,LEN(D43)-1)))</f>
+      <c r="D12" s="6">
+        <f t="shared" si="3"/>
         <v>63</v>
       </c>
-      <c r="E12" s="7">
-        <f>IF(RIGHT(E43,1)="m",VALUE(MID(E43,1,LEN(E43)-2)),VALUE(MID(E43,1,LEN(E43)-1)))</f>
+      <c r="E12" s="6">
+        <f t="shared" si="3"/>
         <v>63</v>
       </c>
-      <c r="F12" s="7">
-        <f>IF(RIGHT(F43,1)="m",VALUE(MID(F43,1,LEN(F43)-2)),VALUE(MID(F43,1,LEN(F43)-1)))</f>
+      <c r="F12" s="6">
+        <f t="shared" si="3"/>
         <v>63</v>
       </c>
-      <c r="G12" s="7">
-        <f>IF(RIGHT(G43,1)="m",VALUE(MID(G43,1,LEN(G43)-2)),VALUE(MID(G43,1,LEN(G43)-1)))</f>
+      <c r="G12" s="6">
+        <f t="shared" si="3"/>
         <v>63</v>
       </c>
     </row>
@@ -1775,28 +3010,28 @@
       <c r="A13" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B13" s="7" t="str">
-        <f>B44</f>
+      <c r="B13" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>Trail</v>
       </c>
-      <c r="C13" s="7">
-        <f>IF(RIGHT(C44,1)="m",VALUE(MID(C44,1,LEN(C44)-2)),VALUE(MID(C44,1,LEN(C44)-1)))</f>
+      <c r="C13" s="6">
+        <f t="shared" si="1"/>
         <v>101</v>
       </c>
-      <c r="D13" s="7">
-        <f>IF(RIGHT(D44,1)="m",VALUE(MID(D44,1,LEN(D44)-2)),VALUE(MID(D44,1,LEN(D44)-1)))</f>
+      <c r="D13" s="6">
+        <f t="shared" si="3"/>
         <v>101</v>
       </c>
-      <c r="E13" s="7">
-        <f>IF(RIGHT(E44,1)="m",VALUE(MID(E44,1,LEN(E44)-2)),VALUE(MID(E44,1,LEN(E44)-1)))</f>
+      <c r="E13" s="6">
+        <f t="shared" si="3"/>
         <v>101</v>
       </c>
-      <c r="F13" s="7">
-        <f>IF(RIGHT(F44,1)="m",VALUE(MID(F44,1,LEN(F44)-2)),VALUE(MID(F44,1,LEN(F44)-1)))</f>
+      <c r="F13" s="6">
+        <f t="shared" si="3"/>
         <v>101</v>
       </c>
-      <c r="G13" s="7">
-        <f>IF(RIGHT(G44,1)="m",VALUE(MID(G44,1,LEN(G44)-2)),VALUE(MID(G44,1,LEN(G44)-1)))</f>
+      <c r="G13" s="6">
+        <f t="shared" si="3"/>
         <v>101</v>
       </c>
     </row>
@@ -1804,28 +3039,28 @@
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="7" t="str">
-        <f>B45</f>
+      <c r="B14" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>Fork Length, Full</v>
       </c>
-      <c r="C14" s="7">
-        <f>IF(RIGHT(C45,1)="m",VALUE(MID(C45,1,LEN(C45)-2)),VALUE(MID(C45,1,LEN(C45)-1)))</f>
+      <c r="C14" s="6">
+        <f t="shared" si="1"/>
         <v>486</v>
       </c>
-      <c r="D14" s="7">
-        <f>IF(RIGHT(D45,1)="m",VALUE(MID(D45,1,LEN(D45)-2)),VALUE(MID(D45,1,LEN(D45)-1)))</f>
+      <c r="D14" s="6">
+        <f t="shared" si="3"/>
         <v>506</v>
       </c>
-      <c r="E14" s="7">
-        <f>IF(RIGHT(E45,1)="m",VALUE(MID(E45,1,LEN(E45)-2)),VALUE(MID(E45,1,LEN(E45)-1)))</f>
+      <c r="E14" s="6">
+        <f t="shared" si="3"/>
         <v>506</v>
       </c>
-      <c r="F14" s="7">
-        <f>IF(RIGHT(F45,1)="m",VALUE(MID(F45,1,LEN(F45)-2)),VALUE(MID(F45,1,LEN(F45)-1)))</f>
+      <c r="F14" s="6">
+        <f t="shared" si="3"/>
         <v>506</v>
       </c>
-      <c r="G14" s="7">
-        <f>IF(RIGHT(G45,1)="m",VALUE(MID(G45,1,LEN(G45)-2)),VALUE(MID(G45,1,LEN(G45)-1)))</f>
+      <c r="G14" s="6">
+        <f t="shared" si="3"/>
         <v>506</v>
       </c>
     </row>
@@ -1833,28 +3068,28 @@
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="7" t="str">
-        <f>B46</f>
+      <c r="B15" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>Fork Rake/Offset</v>
       </c>
-      <c r="C15" s="7">
-        <f>IF(RIGHT(C46,1)="m",VALUE(MID(C46,1,LEN(C46)-2)),VALUE(MID(C46,1,LEN(C46)-1)))</f>
+      <c r="C15" s="6">
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="D15" s="7">
-        <f>IF(RIGHT(D46,1)="m",VALUE(MID(D46,1,LEN(D46)-2)),VALUE(MID(D46,1,LEN(D46)-1)))</f>
+      <c r="D15" s="6">
+        <f t="shared" si="3"/>
         <v>44</v>
       </c>
-      <c r="E15" s="7">
-        <f>IF(RIGHT(E46,1)="m",VALUE(MID(E46,1,LEN(E46)-2)),VALUE(MID(E46,1,LEN(E46)-1)))</f>
+      <c r="E15" s="6">
+        <f t="shared" si="3"/>
         <v>44</v>
       </c>
-      <c r="F15" s="7">
-        <f>IF(RIGHT(F46,1)="m",VALUE(MID(F46,1,LEN(F46)-2)),VALUE(MID(F46,1,LEN(F46)-1)))</f>
+      <c r="F15" s="6">
+        <f t="shared" si="3"/>
         <v>44</v>
       </c>
-      <c r="G15" s="7">
-        <f>IF(RIGHT(G46,1)="m",VALUE(MID(G46,1,LEN(G46)-2)),VALUE(MID(G46,1,LEN(G46)-1)))</f>
+      <c r="G15" s="6">
+        <f t="shared" si="3"/>
         <v>44</v>
       </c>
     </row>
@@ -1862,28 +3097,28 @@
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="7" t="str">
-        <f>B47</f>
+      <c r="B16" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>Front Center</v>
       </c>
-      <c r="C16" s="7">
-        <f>IF(RIGHT(C47,1)="m",VALUE(MID(C47,1,LEN(C47)-2)),VALUE(MID(C47,1,LEN(C47)-1)))</f>
+      <c r="C16" s="6">
+        <f t="shared" si="1"/>
         <v>643</v>
       </c>
-      <c r="D16" s="7">
-        <f>IF(RIGHT(D47,1)="m",VALUE(MID(D47,1,LEN(D47)-2)),VALUE(MID(D47,1,LEN(D47)-1)))</f>
+      <c r="D16" s="6">
+        <f t="shared" si="3"/>
         <v>670</v>
       </c>
-      <c r="E16" s="7">
-        <f>IF(RIGHT(E47,1)="m",VALUE(MID(E47,1,LEN(E47)-2)),VALUE(MID(E47,1,LEN(E47)-1)))</f>
+      <c r="E16" s="6">
+        <f t="shared" si="3"/>
         <v>695</v>
       </c>
-      <c r="F16" s="7">
-        <f>IF(RIGHT(F47,1)="m",VALUE(MID(F47,1,LEN(F47)-2)),VALUE(MID(F47,1,LEN(F47)-1)))</f>
+      <c r="F16" s="6">
+        <f t="shared" si="3"/>
         <v>725</v>
       </c>
-      <c r="G16" s="7">
-        <f>IF(RIGHT(G47,1)="m",VALUE(MID(G47,1,LEN(G47)-2)),VALUE(MID(G47,1,LEN(G47)-1)))</f>
+      <c r="G16" s="6">
+        <f t="shared" si="3"/>
         <v>755</v>
       </c>
     </row>
@@ -1891,28 +3126,28 @@
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="7" t="str">
-        <f>B48</f>
+      <c r="B17" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>Chainstay Length</v>
       </c>
-      <c r="C17" s="7">
-        <f>IF(RIGHT(C48,1)="m",VALUE(MID(C48,1,LEN(C48)-2)),VALUE(MID(C48,1,LEN(C48)-1)))</f>
+      <c r="C17" s="6">
+        <f t="shared" si="1"/>
         <v>430</v>
       </c>
-      <c r="D17" s="7">
-        <f>IF(RIGHT(D48,1)="m",VALUE(MID(D48,1,LEN(D48)-2)),VALUE(MID(D48,1,LEN(D48)-1)))</f>
+      <c r="D17" s="6">
+        <f t="shared" si="3"/>
         <v>430</v>
       </c>
-      <c r="E17" s="7">
-        <f>IF(RIGHT(E48,1)="m",VALUE(MID(E48,1,LEN(E48)-2)),VALUE(MID(E48,1,LEN(E48)-1)))</f>
+      <c r="E17" s="6">
+        <f t="shared" si="3"/>
         <v>430</v>
       </c>
-      <c r="F17" s="7">
-        <f>IF(RIGHT(F48,1)="m",VALUE(MID(F48,1,LEN(F48)-2)),VALUE(MID(F48,1,LEN(F48)-1)))</f>
+      <c r="F17" s="6">
+        <f t="shared" si="3"/>
         <v>430</v>
       </c>
-      <c r="G17" s="7">
-        <f>IF(RIGHT(G48,1)="m",VALUE(MID(G48,1,LEN(G48)-2)),VALUE(MID(G48,1,LEN(G48)-1)))</f>
+      <c r="G17" s="6">
+        <f t="shared" si="3"/>
         <v>430</v>
       </c>
     </row>
@@ -1920,28 +3155,28 @@
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="7" t="str">
-        <f>B49</f>
+      <c r="B18" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>Wheelbase</v>
       </c>
-      <c r="C18" s="7">
-        <f>IF(RIGHT(C49,1)="m",VALUE(MID(C49,1,LEN(C49)-2)),VALUE(MID(C49,1,LEN(C49)-1)))</f>
+      <c r="C18" s="6">
+        <f t="shared" si="1"/>
         <v>1064</v>
       </c>
-      <c r="D18" s="7">
-        <f>IF(RIGHT(D49,1)="m",VALUE(MID(D49,1,LEN(D49)-2)),VALUE(MID(D49,1,LEN(D49)-1)))</f>
+      <c r="D18" s="6">
+        <f t="shared" si="3"/>
         <v>1092</v>
       </c>
-      <c r="E18" s="7">
-        <f>IF(RIGHT(E49,1)="m",VALUE(MID(E49,1,LEN(E49)-2)),VALUE(MID(E49,1,LEN(E49)-1)))</f>
+      <c r="E18" s="6">
+        <f t="shared" si="3"/>
         <v>1117</v>
       </c>
-      <c r="F18" s="7">
-        <f>IF(RIGHT(F49,1)="m",VALUE(MID(F49,1,LEN(F49)-2)),VALUE(MID(F49,1,LEN(F49)-1)))</f>
+      <c r="F18" s="6">
+        <f t="shared" si="3"/>
         <v>1148</v>
       </c>
-      <c r="G18" s="7">
-        <f>IF(RIGHT(G49,1)="m",VALUE(MID(G49,1,LEN(G49)-2)),VALUE(MID(G49,1,LEN(G49)-1)))</f>
+      <c r="G18" s="6">
+        <f t="shared" si="3"/>
         <v>1178</v>
       </c>
     </row>
@@ -1949,28 +3184,28 @@
       <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="7" t="str">
-        <f>B50</f>
+      <c r="B19" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>Top Tube Length, Horizontal</v>
       </c>
-      <c r="C19" s="7">
-        <f>IF(RIGHT(C50,1)="m",VALUE(MID(C50,1,LEN(C50)-2)),VALUE(MID(C50,1,LEN(C50)-1)))</f>
+      <c r="C19" s="6">
+        <f t="shared" si="1"/>
         <v>555</v>
       </c>
-      <c r="D19" s="7">
-        <f>IF(RIGHT(D50,1)="m",VALUE(MID(D50,1,LEN(D50)-2)),VALUE(MID(D50,1,LEN(D50)-1)))</f>
+      <c r="D19" s="6">
+        <f t="shared" si="3"/>
         <v>579</v>
       </c>
-      <c r="E19" s="7">
-        <f>IF(RIGHT(E50,1)="m",VALUE(MID(E50,1,LEN(E50)-2)),VALUE(MID(E50,1,LEN(E50)-1)))</f>
+      <c r="E19" s="6">
+        <f t="shared" si="3"/>
         <v>604</v>
       </c>
-      <c r="F19" s="7">
-        <f>IF(RIGHT(F50,1)="m",VALUE(MID(F50,1,LEN(F50)-2)),VALUE(MID(F50,1,LEN(F50)-1)))</f>
+      <c r="F19" s="6">
+        <f t="shared" si="3"/>
         <v>633</v>
       </c>
-      <c r="G19" s="7">
-        <f>IF(RIGHT(G50,1)="m",VALUE(MID(G50,1,LEN(G50)-2)),VALUE(MID(G50,1,LEN(G50)-1)))</f>
+      <c r="G19" s="6">
+        <f t="shared" si="3"/>
         <v>662</v>
       </c>
     </row>
@@ -1978,28 +3213,28 @@
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="7" t="str">
-        <f>B51</f>
+      <c r="B20" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>Bike Standover Height</v>
       </c>
-      <c r="C20" s="7">
-        <f>IF(RIGHT(C51,1)="m",VALUE(MID(C51,1,LEN(C51)-2)),VALUE(MID(C51,1,LEN(C51)-1)))</f>
+      <c r="C20" s="6">
+        <f t="shared" si="1"/>
         <v>732</v>
       </c>
-      <c r="D20" s="7">
-        <f>IF(RIGHT(D51,1)="m",VALUE(MID(D51,1,LEN(D51)-2)),VALUE(MID(D51,1,LEN(D51)-1)))</f>
+      <c r="D20" s="6">
+        <f t="shared" si="3"/>
         <v>762</v>
       </c>
-      <c r="E20" s="7">
-        <f>IF(RIGHT(E51,1)="m",VALUE(MID(E51,1,LEN(E51)-2)),VALUE(MID(E51,1,LEN(E51)-1)))</f>
+      <c r="E20" s="6">
+        <f t="shared" si="3"/>
         <v>792</v>
       </c>
-      <c r="F20" s="7">
-        <f>IF(RIGHT(F51,1)="m",VALUE(MID(F51,1,LEN(F51)-2)),VALUE(MID(F51,1,LEN(F51)-1)))</f>
+      <c r="F20" s="6">
+        <f t="shared" si="3"/>
         <v>816</v>
       </c>
-      <c r="G20" s="7">
-        <f>IF(RIGHT(G51,1)="m",VALUE(MID(G51,1,LEN(G51)-2)),VALUE(MID(G51,1,LEN(G51)-1)))</f>
+      <c r="G20" s="6">
+        <f t="shared" si="3"/>
         <v>847</v>
       </c>
     </row>
@@ -2007,28 +3242,28 @@
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="7" t="str">
-        <f>B52</f>
+      <c r="B21" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>Seat Tube Length</v>
       </c>
-      <c r="C21" s="7">
-        <f>IF(RIGHT(C52,1)="m",VALUE(MID(C52,1,LEN(C52)-2)),VALUE(MID(C52,1,LEN(C52)-1)))</f>
+      <c r="C21" s="6">
+        <f t="shared" si="1"/>
         <v>367</v>
       </c>
-      <c r="D21" s="7">
-        <f>IF(RIGHT(D52,1)="m",VALUE(MID(D52,1,LEN(D52)-2)),VALUE(MID(D52,1,LEN(D52)-1)))</f>
+      <c r="D21" s="6">
+        <f t="shared" si="3"/>
         <v>400</v>
       </c>
-      <c r="E21" s="7">
-        <f>IF(RIGHT(E52,1)="m",VALUE(MID(E52,1,LEN(E52)-2)),VALUE(MID(E52,1,LEN(E52)-1)))</f>
+      <c r="E21" s="6">
+        <f t="shared" si="3"/>
         <v>430</v>
       </c>
-      <c r="F21" s="7">
-        <f>IF(RIGHT(F52,1)="m",VALUE(MID(F52,1,LEN(F52)-2)),VALUE(MID(F52,1,LEN(F52)-1)))</f>
+      <c r="F21" s="6">
+        <f t="shared" si="3"/>
         <v>470</v>
       </c>
-      <c r="G21" s="7">
-        <f>IF(RIGHT(G52,1)="m",VALUE(MID(G52,1,LEN(G52)-2)),VALUE(MID(G52,1,LEN(G52)-1)))</f>
+      <c r="G21" s="6">
+        <f t="shared" si="3"/>
         <v>520</v>
       </c>
     </row>
@@ -2036,28 +3271,28 @@
       <c r="A22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="7" t="str">
-        <f>B53</f>
+      <c r="B22" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>Seat Tube Angle</v>
       </c>
-      <c r="C22" s="7">
-        <f>IF(RIGHT(C53,1)="m",VALUE(MID(C53,1,LEN(C53)-2)),VALUE(MID(C53,1,LEN(C53)-1)))</f>
+      <c r="C22" s="6">
+        <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="D22" s="7">
-        <f>IF(RIGHT(D53,1)="m",VALUE(MID(D53,1,LEN(D53)-2)),VALUE(MID(D53,1,LEN(D53)-1)))</f>
+      <c r="D22" s="6">
+        <f t="shared" si="3"/>
         <v>74</v>
       </c>
-      <c r="E22" s="7">
-        <f>IF(RIGHT(E53,1)="m",VALUE(MID(E53,1,LEN(E53)-2)),VALUE(MID(E53,1,LEN(E53)-1)))</f>
+      <c r="E22" s="6">
+        <f t="shared" si="3"/>
         <v>74</v>
       </c>
-      <c r="F22" s="7">
-        <f>IF(RIGHT(F53,1)="m",VALUE(MID(F53,1,LEN(F53)-2)),VALUE(MID(F53,1,LEN(F53)-1)))</f>
+      <c r="F22" s="6">
+        <f t="shared" si="3"/>
         <v>74</v>
       </c>
-      <c r="G22" s="7">
-        <f>IF(RIGHT(G53,1)="m",VALUE(MID(G53,1,LEN(G53)-2)),VALUE(MID(G53,1,LEN(G53)-1)))</f>
+      <c r="G22" s="6">
+        <f t="shared" si="3"/>
         <v>74</v>
       </c>
     </row>
@@ -2065,35 +3300,35 @@
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
     </row>
     <row r="24" spans="1:7" ht="20">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="6">
         <v>29</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="6">
         <v>29</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="6">
         <v>29</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="6">
         <v>29</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="6">
         <v>29</v>
       </c>
     </row>
@@ -2101,27 +3336,27 @@
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="6">
         <f>2.3*2.54*10</f>
         <v>58.419999999999995</v>
       </c>
-      <c r="D25" s="7">
-        <f t="shared" ref="D25:G25" si="1">2.3*2.54*10</f>
+      <c r="D25" s="6">
+        <f t="shared" ref="D25:G25" si="4">2.3*2.54*10</f>
         <v>58.419999999999995</v>
       </c>
-      <c r="E25" s="7">
-        <f t="shared" si="1"/>
+      <c r="E25" s="6">
+        <f t="shared" si="4"/>
         <v>58.419999999999995</v>
       </c>
-      <c r="F25" s="7">
-        <f t="shared" si="1"/>
+      <c r="F25" s="6">
+        <f t="shared" si="4"/>
         <v>58.419999999999995</v>
       </c>
-      <c r="G25" s="7">
-        <f t="shared" si="1"/>
+      <c r="G25" s="6">
+        <f t="shared" si="4"/>
         <v>58.419999999999995</v>
       </c>
     </row>
@@ -2129,14 +3364,14 @@
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
     </row>
     <row r="27" spans="1:7" ht="20">
       <c r="A27" s="1" t="s">
@@ -2145,19 +3380,19 @@
       <c r="B27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="6">
         <v>148</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="6">
         <v>158</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="6">
         <v>165</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="6">
         <v>178</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="6">
         <v>185</v>
       </c>
     </row>
@@ -2168,19 +3403,19 @@
       <c r="B28" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="6">
         <v>155</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="6">
         <v>165</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="6">
         <v>178</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="6">
         <v>185</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G28" s="6">
         <v>193</v>
       </c>
     </row>
@@ -2630,7 +3865,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{645B082A-C36B-8F42-900D-0EA4FD30DA59}">
   <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -2644,22 +3879,22 @@
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2667,28 +3902,28 @@
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="7" t="str">
-        <f>B30</f>
+      <c r="B2" s="6" t="str">
+        <f t="shared" ref="B2:B22" si="0">B30</f>
         <v>Crank Length</v>
       </c>
-      <c r="C2" s="7" t="b">
+      <c r="C2" s="6" t="b">
         <f>'[1]Ventum GS1 2023'!$D$2=IF(RIGHT(C30,1)="m",VALUE(MID(C30,1,LEN(C30)-2)),VALUE(MID(C30,1,LEN(C30)-1)))</f>
         <v>0</v>
       </c>
-      <c r="D2" s="7">
-        <f t="shared" ref="C2:G2" si="0">IF(RIGHT(D30,1)="m",VALUE(MID(D30,1,LEN(D30)-2)),VALUE(MID(D30,1,LEN(D30)-1)))</f>
+      <c r="D2" s="6">
+        <f t="shared" ref="D2:G2" si="1">IF(RIGHT(D30,1)="m",VALUE(MID(D30,1,LEN(D30)-2)),VALUE(MID(D30,1,LEN(D30)-1)))</f>
         <v>170</v>
       </c>
-      <c r="E2" s="7">
-        <f t="shared" si="0"/>
+      <c r="E2" s="6">
+        <f t="shared" si="1"/>
         <v>175</v>
       </c>
-      <c r="F2" s="7">
-        <f t="shared" si="0"/>
+      <c r="F2" s="6">
+        <f t="shared" si="1"/>
         <v>175</v>
       </c>
-      <c r="G2" s="7">
-        <f t="shared" si="0"/>
+      <c r="G2" s="6">
+        <f t="shared" si="1"/>
         <v>175</v>
       </c>
     </row>
@@ -2696,28 +3931,28 @@
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="7" t="str">
-        <f>B31</f>
+      <c r="B3" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>Handlebar Width</v>
       </c>
-      <c r="C3" s="7">
-        <f t="shared" ref="C3:G3" si="1">IF(RIGHT(C31,1)="m",VALUE(MID(C31,1,LEN(C31)-2)),VALUE(MID(C31,1,LEN(C31)-1)))</f>
+      <c r="C3" s="6">
+        <f t="shared" ref="C3:G3" si="2">IF(RIGHT(C31,1)="m",VALUE(MID(C31,1,LEN(C31)-2)),VALUE(MID(C31,1,LEN(C31)-1)))</f>
         <v>750</v>
       </c>
-      <c r="D3" s="7">
-        <f t="shared" si="1"/>
+      <c r="D3" s="6">
+        <f t="shared" si="2"/>
         <v>750</v>
       </c>
-      <c r="E3" s="7">
-        <f t="shared" si="1"/>
+      <c r="E3" s="6">
+        <f t="shared" si="2"/>
         <v>750</v>
       </c>
-      <c r="F3" s="7">
-        <f t="shared" si="1"/>
+      <c r="F3" s="6">
+        <f t="shared" si="2"/>
         <v>750</v>
       </c>
-      <c r="G3" s="7">
-        <f t="shared" si="1"/>
+      <c r="G3" s="6">
+        <f t="shared" si="2"/>
         <v>750</v>
       </c>
     </row>
@@ -2725,28 +3960,28 @@
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="7" t="str">
-        <f>B32</f>
+      <c r="B4" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>Stem Length</v>
       </c>
-      <c r="C4" s="7">
-        <f t="shared" ref="C4:G4" si="2">IF(RIGHT(C32,1)="m",VALUE(MID(C32,1,LEN(C32)-2)),VALUE(MID(C32,1,LEN(C32)-1)))</f>
+      <c r="C4" s="6">
+        <f t="shared" ref="C4:G4" si="3">IF(RIGHT(C32,1)="m",VALUE(MID(C32,1,LEN(C32)-2)),VALUE(MID(C32,1,LEN(C32)-1)))</f>
         <v>60</v>
       </c>
-      <c r="D4" s="7">
-        <f t="shared" si="2"/>
+      <c r="D4" s="6">
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="E4" s="7">
-        <f t="shared" si="2"/>
+      <c r="E4" s="6">
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="F4" s="7">
-        <f t="shared" si="2"/>
+      <c r="F4" s="6">
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="G4" s="7">
-        <f t="shared" si="2"/>
+      <c r="G4" s="6">
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
     </row>
@@ -2754,57 +3989,57 @@
       <c r="A5" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B5" s="7" t="str">
-        <f>B33</f>
+      <c r="B5" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>Saddle Width</v>
       </c>
-      <c r="C5" s="7">
-        <f t="shared" ref="C5:G5" si="3">IF(RIGHT(C33,1)="m",VALUE(MID(C33,1,LEN(C33)-2)),VALUE(MID(C33,1,LEN(C33)-1)))</f>
+      <c r="C5" s="6">
+        <f t="shared" ref="C5:G5" si="4">IF(RIGHT(C33,1)="m",VALUE(MID(C33,1,LEN(C33)-2)),VALUE(MID(C33,1,LEN(C33)-1)))</f>
         <v>143</v>
       </c>
-      <c r="D5" s="7">
-        <f t="shared" si="3"/>
+      <c r="D5" s="6">
+        <f t="shared" si="4"/>
         <v>143</v>
       </c>
-      <c r="E5" s="7">
-        <f t="shared" si="3"/>
+      <c r="E5" s="6">
+        <f t="shared" si="4"/>
         <v>143</v>
       </c>
-      <c r="F5" s="7">
-        <f t="shared" si="3"/>
+      <c r="F5" s="6">
+        <f t="shared" si="4"/>
         <v>143</v>
       </c>
-      <c r="G5" s="7">
-        <f t="shared" si="3"/>
+      <c r="G5" s="6">
+        <f t="shared" si="4"/>
         <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="19">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B6" s="7" t="str">
-        <f>B34</f>
+      <c r="B6" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>Seatpost Length</v>
       </c>
-      <c r="C6" s="7">
-        <f t="shared" ref="C6:G6" si="4">IF(RIGHT(C34,1)="m",VALUE(MID(C34,1,LEN(C34)-2)),VALUE(MID(C34,1,LEN(C34)-1)))</f>
+      <c r="C6" s="6">
+        <f t="shared" ref="C6:G6" si="5">IF(RIGHT(C34,1)="m",VALUE(MID(C34,1,LEN(C34)-2)),VALUE(MID(C34,1,LEN(C34)-1)))</f>
         <v>350</v>
       </c>
-      <c r="D6" s="7">
-        <f t="shared" si="4"/>
+      <c r="D6" s="6">
+        <f t="shared" si="5"/>
         <v>350</v>
       </c>
-      <c r="E6" s="7">
-        <f t="shared" si="4"/>
+      <c r="E6" s="6">
+        <f t="shared" si="5"/>
         <v>400</v>
       </c>
-      <c r="F6" s="7">
-        <f t="shared" si="4"/>
+      <c r="F6" s="6">
+        <f t="shared" si="5"/>
         <v>400</v>
       </c>
-      <c r="G6" s="7">
-        <f t="shared" si="4"/>
+      <c r="G6" s="6">
+        <f t="shared" si="5"/>
         <v>400</v>
       </c>
     </row>
@@ -2812,28 +4047,28 @@
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="7" t="str">
-        <f>B35</f>
+      <c r="B7" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>Stack</v>
       </c>
-      <c r="C7" s="7">
-        <f t="shared" ref="C7:G7" si="5">IF(RIGHT(C35,1)="m",VALUE(MID(C35,1,LEN(C35)-2)),VALUE(MID(C35,1,LEN(C35)-1)))</f>
+      <c r="C7" s="6">
+        <f t="shared" ref="C7:G7" si="6">IF(RIGHT(C35,1)="m",VALUE(MID(C35,1,LEN(C35)-2)),VALUE(MID(C35,1,LEN(C35)-1)))</f>
         <v>589</v>
       </c>
-      <c r="D7" s="7">
-        <f t="shared" si="5"/>
+      <c r="D7" s="6">
+        <f t="shared" si="6"/>
         <v>599</v>
       </c>
-      <c r="E7" s="7">
-        <f t="shared" si="5"/>
+      <c r="E7" s="6">
+        <f t="shared" si="6"/>
         <v>608</v>
       </c>
-      <c r="F7" s="7">
-        <f t="shared" si="5"/>
+      <c r="F7" s="6">
+        <f t="shared" si="6"/>
         <v>622</v>
       </c>
-      <c r="G7" s="7">
-        <f t="shared" si="5"/>
+      <c r="G7" s="6">
+        <f t="shared" si="6"/>
         <v>637</v>
       </c>
     </row>
@@ -2841,28 +4076,28 @@
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="7" t="str">
-        <f>B36</f>
+      <c r="B8" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>Reach</v>
       </c>
-      <c r="C8" s="7">
-        <f t="shared" ref="C8:G8" si="6">IF(RIGHT(C36,1)="m",VALUE(MID(C36,1,LEN(C36)-2)),VALUE(MID(C36,1,LEN(C36)-1)))</f>
+      <c r="C8" s="6">
+        <f t="shared" ref="C8:G8" si="7">IF(RIGHT(C36,1)="m",VALUE(MID(C36,1,LEN(C36)-2)),VALUE(MID(C36,1,LEN(C36)-1)))</f>
         <v>380</v>
       </c>
-      <c r="D8" s="7">
-        <f t="shared" si="6"/>
+      <c r="D8" s="6">
+        <f t="shared" si="7"/>
         <v>395</v>
       </c>
-      <c r="E8" s="7">
-        <f t="shared" si="6"/>
+      <c r="E8" s="6">
+        <f t="shared" si="7"/>
         <v>418</v>
       </c>
-      <c r="F8" s="7">
-        <f t="shared" si="6"/>
+      <c r="F8" s="6">
+        <f t="shared" si="7"/>
         <v>441</v>
       </c>
-      <c r="G8" s="7">
-        <f t="shared" si="6"/>
+      <c r="G8" s="6">
+        <f t="shared" si="7"/>
         <v>462</v>
       </c>
     </row>
@@ -2870,28 +4105,28 @@
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="7" t="str">
-        <f>B37</f>
+      <c r="B9" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>Head Tube Length</v>
       </c>
-      <c r="C9" s="7">
-        <f t="shared" ref="C9:G9" si="7">IF(RIGHT(C37,1)="m",VALUE(MID(C37,1,LEN(C37)-2)),VALUE(MID(C37,1,LEN(C37)-1)))</f>
+      <c r="C9" s="6">
+        <f t="shared" ref="C9:G9" si="8">IF(RIGHT(C37,1)="m",VALUE(MID(C37,1,LEN(C37)-2)),VALUE(MID(C37,1,LEN(C37)-1)))</f>
         <v>95</v>
       </c>
-      <c r="D9" s="7">
-        <f t="shared" si="7"/>
+      <c r="D9" s="6">
+        <f t="shared" si="8"/>
         <v>95</v>
       </c>
-      <c r="E9" s="7">
-        <f t="shared" si="7"/>
+      <c r="E9" s="6">
+        <f t="shared" si="8"/>
         <v>95</v>
       </c>
-      <c r="F9" s="7">
-        <f t="shared" si="7"/>
+      <c r="F9" s="6">
+        <f t="shared" si="8"/>
         <v>110</v>
       </c>
-      <c r="G9" s="7">
-        <f t="shared" si="7"/>
+      <c r="G9" s="6">
+        <f t="shared" si="8"/>
         <v>125</v>
       </c>
     </row>
@@ -2899,28 +4134,28 @@
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="7" t="str">
-        <f>B38</f>
+      <c r="B10" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>Head Tube Angle</v>
       </c>
-      <c r="C10" s="7">
-        <f t="shared" ref="C10:G10" si="8">IF(RIGHT(C38,1)="m",VALUE(MID(C38,1,LEN(C38)-2)),VALUE(MID(C38,1,LEN(C38)-1)))</f>
+      <c r="C10" s="6">
+        <f t="shared" ref="C10:G10" si="9">IF(RIGHT(C38,1)="m",VALUE(MID(C38,1,LEN(C38)-2)),VALUE(MID(C38,1,LEN(C38)-1)))</f>
         <v>69.8</v>
       </c>
-      <c r="D10" s="7">
-        <f t="shared" si="8"/>
+      <c r="D10" s="6">
+        <f t="shared" si="9"/>
         <v>69.8</v>
       </c>
-      <c r="E10" s="7">
-        <f t="shared" si="8"/>
+      <c r="E10" s="6">
+        <f t="shared" si="9"/>
         <v>69.8</v>
       </c>
-      <c r="F10" s="7">
-        <f t="shared" si="8"/>
+      <c r="F10" s="6">
+        <f t="shared" si="9"/>
         <v>69.8</v>
       </c>
-      <c r="G10" s="7">
-        <f t="shared" si="8"/>
+      <c r="G10" s="6">
+        <f t="shared" si="9"/>
         <v>69.8</v>
       </c>
     </row>
@@ -2928,28 +4163,28 @@
       <c r="A11" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B11" s="7" t="str">
-        <f>B39</f>
+      <c r="B11" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>BB Height</v>
       </c>
-      <c r="C11" s="7">
-        <f t="shared" ref="C11:G11" si="9">IF(RIGHT(C39,1)="m",VALUE(MID(C39,1,LEN(C39)-2)),VALUE(MID(C39,1,LEN(C39)-1)))</f>
+      <c r="C11" s="6">
+        <f t="shared" ref="C11:G11" si="10">IF(RIGHT(C39,1)="m",VALUE(MID(C39,1,LEN(C39)-2)),VALUE(MID(C39,1,LEN(C39)-1)))</f>
         <v>309</v>
       </c>
-      <c r="D11" s="7">
-        <f t="shared" si="9"/>
+      <c r="D11" s="6">
+        <f t="shared" si="10"/>
         <v>309</v>
       </c>
-      <c r="E11" s="7">
-        <f t="shared" si="9"/>
+      <c r="E11" s="6">
+        <f t="shared" si="10"/>
         <v>309</v>
       </c>
-      <c r="F11" s="7">
-        <f t="shared" si="9"/>
+      <c r="F11" s="6">
+        <f t="shared" si="10"/>
         <v>309</v>
       </c>
-      <c r="G11" s="7">
-        <f t="shared" si="9"/>
+      <c r="G11" s="6">
+        <f t="shared" si="10"/>
         <v>309</v>
       </c>
     </row>
@@ -2957,28 +4192,28 @@
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="7" t="str">
-        <f>B40</f>
+      <c r="B12" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>BB Drop</v>
       </c>
-      <c r="C12" s="7">
-        <f t="shared" ref="C12:G12" si="10">IF(RIGHT(C40,1)="m",VALUE(MID(C40,1,LEN(C40)-2)),VALUE(MID(C40,1,LEN(C40)-1)))</f>
+      <c r="C12" s="6">
+        <f t="shared" ref="C12:G12" si="11">IF(RIGHT(C40,1)="m",VALUE(MID(C40,1,LEN(C40)-2)),VALUE(MID(C40,1,LEN(C40)-1)))</f>
         <v>61</v>
       </c>
-      <c r="D12" s="7">
-        <f t="shared" si="10"/>
+      <c r="D12" s="6">
+        <f t="shared" si="11"/>
         <v>61</v>
       </c>
-      <c r="E12" s="7">
-        <f t="shared" si="10"/>
+      <c r="E12" s="6">
+        <f t="shared" si="11"/>
         <v>61</v>
       </c>
-      <c r="F12" s="7">
-        <f t="shared" si="10"/>
+      <c r="F12" s="6">
+        <f t="shared" si="11"/>
         <v>61</v>
       </c>
-      <c r="G12" s="7">
-        <f t="shared" si="10"/>
+      <c r="G12" s="6">
+        <f t="shared" si="11"/>
         <v>61</v>
       </c>
     </row>
@@ -2986,28 +4221,28 @@
       <c r="A13" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B13" s="7" t="str">
-        <f>B41</f>
+      <c r="B13" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>Trail</v>
       </c>
-      <c r="C13" s="7">
-        <f t="shared" ref="C13:G13" si="11">IF(RIGHT(C41,1)="m",VALUE(MID(C41,1,LEN(C41)-2)),VALUE(MID(C41,1,LEN(C41)-1)))</f>
+      <c r="C13" s="6">
+        <f t="shared" ref="C13:G13" si="12">IF(RIGHT(C41,1)="m",VALUE(MID(C41,1,LEN(C41)-2)),VALUE(MID(C41,1,LEN(C41)-1)))</f>
         <v>81.8</v>
       </c>
-      <c r="D13" s="7">
-        <f t="shared" si="11"/>
+      <c r="D13" s="6">
+        <f t="shared" si="12"/>
         <v>82</v>
       </c>
-      <c r="E13" s="7">
-        <f t="shared" si="11"/>
+      <c r="E13" s="6">
+        <f t="shared" si="12"/>
         <v>82</v>
       </c>
-      <c r="F13" s="7">
-        <f t="shared" si="11"/>
+      <c r="F13" s="6">
+        <f t="shared" si="12"/>
         <v>82</v>
       </c>
-      <c r="G13" s="7">
-        <f t="shared" si="11"/>
+      <c r="G13" s="6">
+        <f t="shared" si="12"/>
         <v>82</v>
       </c>
     </row>
@@ -3015,28 +4250,28 @@
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="7" t="str">
-        <f>B42</f>
+      <c r="B14" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>Fork Length, Full</v>
       </c>
-      <c r="C14" s="7">
-        <f t="shared" ref="C14:G14" si="12">IF(RIGHT(C42,1)="m",VALUE(MID(C42,1,LEN(C42)-2)),VALUE(MID(C42,1,LEN(C42)-1)))</f>
+      <c r="C14" s="6">
+        <f t="shared" ref="C14:G14" si="13">IF(RIGHT(C42,1)="m",VALUE(MID(C42,1,LEN(C42)-2)),VALUE(MID(C42,1,LEN(C42)-1)))</f>
         <v>486</v>
       </c>
-      <c r="D14" s="7">
-        <f t="shared" si="12"/>
+      <c r="D14" s="6">
+        <f t="shared" si="13"/>
         <v>496</v>
       </c>
-      <c r="E14" s="7">
-        <f t="shared" si="12"/>
+      <c r="E14" s="6">
+        <f t="shared" si="13"/>
         <v>506</v>
       </c>
-      <c r="F14" s="7">
-        <f t="shared" si="12"/>
+      <c r="F14" s="6">
+        <f t="shared" si="13"/>
         <v>506</v>
       </c>
-      <c r="G14" s="7">
-        <f t="shared" si="12"/>
+      <c r="G14" s="6">
+        <f t="shared" si="13"/>
         <v>506</v>
       </c>
     </row>
@@ -3044,57 +4279,57 @@
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="7" t="str">
-        <f>B43</f>
+      <c r="B15" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>Fork Rake/Offset</v>
       </c>
-      <c r="C15" s="7">
-        <f t="shared" ref="C15:G15" si="13">IF(RIGHT(C43,1)="m",VALUE(MID(C43,1,LEN(C43)-2)),VALUE(MID(C43,1,LEN(C43)-1)))</f>
+      <c r="C15" s="6">
+        <f t="shared" ref="C15:G15" si="14">IF(RIGHT(C43,1)="m",VALUE(MID(C43,1,LEN(C43)-2)),VALUE(MID(C43,1,LEN(C43)-1)))</f>
         <v>51</v>
       </c>
-      <c r="D15" s="7">
-        <f t="shared" si="13"/>
+      <c r="D15" s="6">
+        <f t="shared" si="14"/>
         <v>51</v>
       </c>
-      <c r="E15" s="7">
-        <f t="shared" si="13"/>
+      <c r="E15" s="6">
+        <f t="shared" si="14"/>
         <v>51</v>
       </c>
-      <c r="F15" s="7">
-        <f t="shared" si="13"/>
+      <c r="F15" s="6">
+        <f t="shared" si="14"/>
         <v>51</v>
       </c>
-      <c r="G15" s="7">
-        <f t="shared" si="13"/>
+      <c r="G15" s="6">
+        <f t="shared" si="14"/>
         <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="19">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="7" t="str">
-        <f>B44</f>
+      <c r="B16" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>Front Center</v>
       </c>
-      <c r="C16" s="7">
-        <f t="shared" ref="C16:G16" si="14">IF(RIGHT(C44,1)="m",VALUE(MID(C44,1,LEN(C44)-2)),VALUE(MID(C44,1,LEN(C44)-1)))</f>
+      <c r="C16" s="6">
+        <f t="shared" ref="C16:G16" si="15">IF(RIGHT(C44,1)="m",VALUE(MID(C44,1,LEN(C44)-2)),VALUE(MID(C44,1,LEN(C44)-1)))</f>
         <v>631</v>
       </c>
-      <c r="D16" s="7">
-        <f t="shared" si="14"/>
+      <c r="D16" s="6">
+        <f t="shared" si="15"/>
         <v>650</v>
       </c>
-      <c r="E16" s="7">
-        <f t="shared" si="14"/>
+      <c r="E16" s="6">
+        <f t="shared" si="15"/>
         <v>676</v>
       </c>
-      <c r="F16" s="7">
-        <f t="shared" si="14"/>
+      <c r="F16" s="6">
+        <f t="shared" si="15"/>
         <v>705</v>
       </c>
-      <c r="G16" s="7">
-        <f t="shared" si="14"/>
+      <c r="G16" s="6">
+        <f t="shared" si="15"/>
         <v>731</v>
       </c>
     </row>
@@ -3102,28 +4337,28 @@
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="7" t="str">
-        <f>B45</f>
+      <c r="B17" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>Chainstay Length</v>
       </c>
-      <c r="C17" s="7">
-        <f t="shared" ref="C17:G17" si="15">IF(RIGHT(C45,1)="m",VALUE(MID(C45,1,LEN(C45)-2)),VALUE(MID(C45,1,LEN(C45)-1)))</f>
+      <c r="C17" s="6">
+        <f t="shared" ref="C17:G17" si="16">IF(RIGHT(C45,1)="m",VALUE(MID(C45,1,LEN(C45)-2)),VALUE(MID(C45,1,LEN(C45)-1)))</f>
         <v>430</v>
       </c>
-      <c r="D17" s="7">
-        <f t="shared" si="15"/>
+      <c r="D17" s="6">
+        <f t="shared" si="16"/>
         <v>430</v>
       </c>
-      <c r="E17" s="7">
-        <f t="shared" si="15"/>
+      <c r="E17" s="6">
+        <f t="shared" si="16"/>
         <v>430</v>
       </c>
-      <c r="F17" s="7">
-        <f t="shared" si="15"/>
+      <c r="F17" s="6">
+        <f t="shared" si="16"/>
         <v>430</v>
       </c>
-      <c r="G17" s="7">
-        <f t="shared" si="15"/>
+      <c r="G17" s="6">
+        <f t="shared" si="16"/>
         <v>430</v>
       </c>
     </row>
@@ -3131,28 +4366,28 @@
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="7" t="str">
-        <f>B46</f>
+      <c r="B18" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>Wheelbase</v>
       </c>
-      <c r="C18" s="7">
-        <f t="shared" ref="C18:G18" si="16">IF(RIGHT(C46,1)="m",VALUE(MID(C46,1,LEN(C46)-2)),VALUE(MID(C46,1,LEN(C46)-1)))</f>
+      <c r="C18" s="6">
+        <f t="shared" ref="C18:G18" si="17">IF(RIGHT(C46,1)="m",VALUE(MID(C46,1,LEN(C46)-2)),VALUE(MID(C46,1,LEN(C46)-1)))</f>
         <v>1054</v>
       </c>
-      <c r="D18" s="7">
-        <f t="shared" si="16"/>
+      <c r="D18" s="6">
+        <f t="shared" si="17"/>
         <v>1073</v>
       </c>
-      <c r="E18" s="7">
-        <f t="shared" si="16"/>
+      <c r="E18" s="6">
+        <f t="shared" si="17"/>
         <v>1099</v>
       </c>
-      <c r="F18" s="7">
-        <f t="shared" si="16"/>
+      <c r="F18" s="6">
+        <f t="shared" si="17"/>
         <v>1128</v>
       </c>
-      <c r="G18" s="7">
-        <f t="shared" si="16"/>
+      <c r="G18" s="6">
+        <f t="shared" si="17"/>
         <v>1154</v>
       </c>
     </row>
@@ -3160,28 +4395,28 @@
       <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="7" t="str">
-        <f>B47</f>
+      <c r="B19" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>Top Tube Length, Horizontal</v>
       </c>
-      <c r="C19" s="7">
-        <f t="shared" ref="C19:G19" si="17">IF(RIGHT(C47,1)="m",VALUE(MID(C47,1,LEN(C47)-2)),VALUE(MID(C47,1,LEN(C47)-1)))</f>
+      <c r="C19" s="6">
+        <f t="shared" ref="C19:G19" si="18">IF(RIGHT(C47,1)="m",VALUE(MID(C47,1,LEN(C47)-2)),VALUE(MID(C47,1,LEN(C47)-1)))</f>
         <v>549</v>
       </c>
-      <c r="D19" s="7">
-        <f t="shared" si="17"/>
+      <c r="D19" s="6">
+        <f t="shared" si="18"/>
         <v>568</v>
       </c>
-      <c r="E19" s="7">
-        <f t="shared" si="17"/>
+      <c r="E19" s="6">
+        <f t="shared" si="18"/>
         <v>595</v>
       </c>
-      <c r="F19" s="7">
-        <f t="shared" si="17"/>
+      <c r="F19" s="6">
+        <f t="shared" si="18"/>
         <v>623</v>
       </c>
-      <c r="G19" s="7">
-        <f t="shared" si="17"/>
+      <c r="G19" s="6">
+        <f t="shared" si="18"/>
         <v>649</v>
       </c>
     </row>
@@ -3189,28 +4424,28 @@
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="7" t="str">
-        <f>B48</f>
+      <c r="B20" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>Bike Standover Height</v>
       </c>
-      <c r="C20" s="7">
-        <f t="shared" ref="C20:G20" si="18">IF(RIGHT(C48,1)="m",VALUE(MID(C48,1,LEN(C48)-2)),VALUE(MID(C48,1,LEN(C48)-1)))</f>
+      <c r="C20" s="6">
+        <f t="shared" ref="C20:G20" si="19">IF(RIGHT(C48,1)="m",VALUE(MID(C48,1,LEN(C48)-2)),VALUE(MID(C48,1,LEN(C48)-1)))</f>
         <v>731</v>
       </c>
-      <c r="D20" s="7">
-        <f t="shared" si="18"/>
+      <c r="D20" s="6">
+        <f t="shared" si="19"/>
         <v>760</v>
       </c>
-      <c r="E20" s="7">
-        <f t="shared" si="18"/>
+      <c r="E20" s="6">
+        <f t="shared" si="19"/>
         <v>790</v>
       </c>
-      <c r="F20" s="7">
-        <f t="shared" si="18"/>
+      <c r="F20" s="6">
+        <f t="shared" si="19"/>
         <v>814</v>
       </c>
-      <c r="G20" s="7">
-        <f t="shared" si="18"/>
+      <c r="G20" s="6">
+        <f t="shared" si="19"/>
         <v>845</v>
       </c>
     </row>
@@ -3218,28 +4453,28 @@
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="7" t="str">
-        <f>B49</f>
+      <c r="B21" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>Seat Tube Length</v>
       </c>
-      <c r="C21" s="7">
-        <f t="shared" ref="C21:G21" si="19">IF(RIGHT(C49,1)="m",VALUE(MID(C49,1,LEN(C49)-2)),VALUE(MID(C49,1,LEN(C49)-1)))</f>
+      <c r="C21" s="6">
+        <f t="shared" ref="C21:G21" si="20">IF(RIGHT(C49,1)="m",VALUE(MID(C49,1,LEN(C49)-2)),VALUE(MID(C49,1,LEN(C49)-1)))</f>
         <v>370</v>
       </c>
-      <c r="D21" s="7">
-        <f t="shared" si="19"/>
+      <c r="D21" s="6">
+        <f t="shared" si="20"/>
         <v>400</v>
       </c>
-      <c r="E21" s="7">
-        <f t="shared" si="19"/>
+      <c r="E21" s="6">
+        <f t="shared" si="20"/>
         <v>430</v>
       </c>
-      <c r="F21" s="7">
-        <f t="shared" si="19"/>
+      <c r="F21" s="6">
+        <f t="shared" si="20"/>
         <v>470</v>
       </c>
-      <c r="G21" s="7">
-        <f t="shared" si="19"/>
+      <c r="G21" s="6">
+        <f t="shared" si="20"/>
         <v>520</v>
       </c>
     </row>
@@ -3247,28 +4482,28 @@
       <c r="A22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="7" t="str">
-        <f>B50</f>
+      <c r="B22" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>Seat Tube Angle</v>
       </c>
-      <c r="C22" s="7">
-        <f t="shared" ref="C22:G22" si="20">IF(RIGHT(C50,1)="m",VALUE(MID(C50,1,LEN(C50)-2)),VALUE(MID(C50,1,LEN(C50)-1)))</f>
+      <c r="C22" s="6">
+        <f t="shared" ref="C22:G22" si="21">IF(RIGHT(C50,1)="m",VALUE(MID(C50,1,LEN(C50)-2)),VALUE(MID(C50,1,LEN(C50)-1)))</f>
         <v>74</v>
       </c>
-      <c r="D22" s="7">
-        <f t="shared" si="20"/>
+      <c r="D22" s="6">
+        <f t="shared" si="21"/>
         <v>74</v>
       </c>
-      <c r="E22" s="7">
-        <f t="shared" si="20"/>
+      <c r="E22" s="6">
+        <f t="shared" si="21"/>
         <v>74</v>
       </c>
-      <c r="F22" s="7">
-        <f t="shared" si="20"/>
+      <c r="F22" s="6">
+        <f t="shared" si="21"/>
         <v>74</v>
       </c>
-      <c r="G22" s="7">
-        <f t="shared" si="20"/>
+      <c r="G22" s="6">
+        <f t="shared" si="21"/>
         <v>74</v>
       </c>
     </row>
@@ -3276,22 +4511,22 @@
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="6">
         <v>29</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="6">
         <v>29</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="6">
         <v>29</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="6">
         <v>29</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="6">
         <v>29</v>
       </c>
     </row>
@@ -3299,27 +4534,27 @@
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="6">
         <f>2.3*2.54*10</f>
         <v>58.419999999999995</v>
       </c>
-      <c r="D24" s="7">
-        <f t="shared" ref="D24:G24" si="21">2.3*2.54*10</f>
+      <c r="D24" s="6">
+        <f t="shared" ref="D24:G24" si="22">2.3*2.54*10</f>
         <v>58.419999999999995</v>
       </c>
-      <c r="E24" s="7">
-        <f t="shared" si="21"/>
+      <c r="E24" s="6">
+        <f t="shared" si="22"/>
         <v>58.419999999999995</v>
       </c>
-      <c r="F24" s="7">
-        <f t="shared" si="21"/>
+      <c r="F24" s="6">
+        <f t="shared" si="22"/>
         <v>58.419999999999995</v>
       </c>
-      <c r="G24" s="7">
-        <f t="shared" si="21"/>
+      <c r="G24" s="6">
+        <f t="shared" si="22"/>
         <v>58.419999999999995</v>
       </c>
     </row>
@@ -3327,20 +4562,20 @@
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
     </row>
     <row r="26" spans="1:7" ht="20">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="6" t="s">
         <v>146</v>
       </c>
       <c r="C26">
@@ -3363,7 +4598,7 @@
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="6" t="s">
         <v>147</v>
       </c>
       <c r="C27">
@@ -3383,422 +4618,422 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="20">
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F30" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="G30" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="20">
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="G31" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="20">
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="F32" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="G32" s="5" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="20">
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F33" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="G33" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="34" spans="2:7" ht="16" customHeight="1">
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="F34" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="G34" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="35" spans="2:7" ht="20">
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E35" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="F35" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="G35" s="6" t="s">
+      <c r="G35" s="5" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="36" spans="2:7" ht="20">
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="F36" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="G36" s="5" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="37" spans="2:7" ht="20">
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="F37" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G37" s="6" t="s">
+      <c r="G37" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="38" spans="2:7" ht="20">
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E38" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="F38" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G38" s="6" t="s">
+      <c r="G38" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="39" spans="2:7" ht="20">
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E39" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="F39" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G39" s="6" t="s">
+      <c r="G39" s="5" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="40" spans="2:7" ht="20">
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D40" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E40" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="F40" s="6" t="s">
+      <c r="F40" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="G40" s="6" t="s">
+      <c r="G40" s="5" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="41" spans="2:7" ht="20">
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D41" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E41" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="F41" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="G41" s="6" t="s">
+      <c r="G41" s="5" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="42" spans="2:7" ht="20">
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F42" s="6" t="s">
+      <c r="F42" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="G42" s="6" t="s">
+      <c r="G42" s="5" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="43" spans="2:7" ht="20">
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D43" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E43" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="F43" s="6" t="s">
+      <c r="F43" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="G43" s="6" t="s">
+      <c r="G43" s="5" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="44" spans="2:7" ht="20">
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D44" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E44" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="F44" s="6" t="s">
+      <c r="F44" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="G44" s="6" t="s">
+      <c r="G44" s="5" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="45" spans="2:7" ht="20">
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D45" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="E45" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F45" s="6" t="s">
+      <c r="F45" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G45" s="6" t="s">
+      <c r="G45" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="46" spans="2:7" ht="20">
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="D46" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="E46" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="F46" s="6" t="s">
+      <c r="F46" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="G46" s="6" t="s">
+      <c r="G46" s="5" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="47" spans="2:7" ht="20">
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D47" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="E47" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F47" s="6" t="s">
+      <c r="F47" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="G47" s="6" t="s">
+      <c r="G47" s="5" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="48" spans="2:7" ht="20">
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="D48" s="6" t="s">
+      <c r="D48" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="E48" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="F48" s="6" t="s">
+      <c r="F48" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="G48" s="6" t="s">
+      <c r="G48" s="5" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="49" spans="2:7" ht="20">
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="D49" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E49" s="6" t="s">
+      <c r="E49" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F49" s="6" t="s">
+      <c r="F49" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="G49" s="6" t="s">
+      <c r="G49" s="5" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="50" spans="2:7" ht="20">
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="D50" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="E50" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F50" s="6" t="s">
+      <c r="F50" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G50" s="6" t="s">
+      <c r="G50" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3811,7 +5046,7 @@
       <c r="G51" s="3"/>
     </row>
     <row r="52" spans="2:7" ht="18">
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="7" t="s">
         <v>149</v>
       </c>
       <c r="C52" s="3"/>
@@ -3829,7 +5064,7 @@
       <c r="G53" s="3"/>
     </row>
     <row r="54" spans="2:7" ht="18">
-      <c r="B54" s="4"/>
+      <c r="B54" s="2"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -3837,7 +5072,7 @@
       <c r="G54" s="3"/>
     </row>
     <row r="55" spans="2:7" ht="18">
-      <c r="B55" s="4"/>
+      <c r="B55" s="2"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -3931,7 +5166,7 @@
         <f t="shared" si="0"/>
         <v>Wheel size </v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>27.5</v>
       </c>
       <c r="D2">
@@ -3958,27 +5193,27 @@
         <f t="shared" si="0"/>
         <v>A — Seat tube </v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <f>IF(RIGHT(C42,1)="°",VALUE(MID(C42,1,LEN(C42)-1)),VALUE(MID(C42,1,LEN(C42)-0) * 10))</f>
         <v>343</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <f t="shared" ref="D3:H3" si="1">IF(RIGHT(D42,1)="°",VALUE(MID(D42,1,LEN(D42)-1)),VALUE(MID(D42,1,LEN(D42)-0) * 10))</f>
         <v>368</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <f t="shared" si="1"/>
         <v>419</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <f t="shared" si="1"/>
         <v>444</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <f t="shared" si="1"/>
         <v>470</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="6">
         <f t="shared" si="1"/>
         <v>521</v>
       </c>
@@ -3991,27 +5226,27 @@
         <f t="shared" si="0"/>
         <v>B — Seat tube angle </v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <f t="shared" ref="C4:H4" si="2">IF(RIGHT(C43,1)="°",VALUE(MID(C43,1,LEN(C43)-1)),VALUE(MID(C43,1,LEN(C43)-0) * 10))</f>
         <v>73</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <f t="shared" si="2"/>
         <v>73</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <f t="shared" si="2"/>
         <v>72.5</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <f t="shared" si="2"/>
         <v>72.3</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <f t="shared" si="2"/>
         <v>72</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="6">
         <f t="shared" si="2"/>
         <v>72</v>
       </c>
@@ -4024,27 +5259,27 @@
         <f t="shared" si="0"/>
         <v>C — Head tube length </v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <f t="shared" ref="C5:H5" si="3">IF(RIGHT(C44,1)="°",VALUE(MID(C44,1,LEN(C44)-1)),VALUE(MID(C44,1,LEN(C44)-0) * 10))</f>
         <v>100</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="6">
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
@@ -4057,27 +5292,27 @@
         <f t="shared" si="0"/>
         <v>D — Head angle </v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <f t="shared" ref="C6:H6" si="4">IF(RIGHT(C45,1)="°",VALUE(MID(C45,1,LEN(C45)-1)),VALUE(MID(C45,1,LEN(C45)-0) * 10))</f>
         <v>69</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <f t="shared" si="4"/>
         <v>69.3</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <f t="shared" si="4"/>
         <v>69.5</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <f t="shared" si="4"/>
         <v>69.5</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <f t="shared" si="4"/>
         <v>69.5</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="6">
         <f t="shared" si="4"/>
         <v>69.5</v>
       </c>
@@ -4090,27 +5325,27 @@
         <f t="shared" si="0"/>
         <v>E — Effective top tube </v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <f t="shared" ref="C7:H7" si="5">IF(RIGHT(C46,1)="°",VALUE(MID(C46,1,LEN(C46)-1)),VALUE(MID(C46,1,LEN(C46)-0) * 10))</f>
         <v>541</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <f t="shared" si="5"/>
         <v>558</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <f t="shared" si="5"/>
         <v>599</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <f t="shared" si="5"/>
         <v>617</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <f t="shared" si="5"/>
         <v>638</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="6">
         <f t="shared" si="5"/>
         <v>659</v>
       </c>
@@ -4123,27 +5358,27 @@
         <f t="shared" si="0"/>
         <v>F — Bottom bracket height </v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <f t="shared" ref="C8:H8" si="6">IF(RIGHT(C47,1)="°",VALUE(MID(C47,1,LEN(C47)-1)),VALUE(MID(C47,1,LEN(C47)-0) * 10))</f>
         <v>302</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <f t="shared" si="6"/>
         <v>302</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <f t="shared" si="6"/>
         <v>311</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <f t="shared" si="6"/>
         <v>311</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <f t="shared" si="6"/>
         <v>311</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="6">
         <f t="shared" si="6"/>
         <v>311</v>
       </c>
@@ -4156,27 +5391,27 @@
         <f t="shared" si="0"/>
         <v>G — Bottom bracket drop </v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <f t="shared" ref="C9:H9" si="7">IF(RIGHT(C48,1)="°",VALUE(MID(C48,1,LEN(C48)-1)),VALUE(MID(C48,1,LEN(C48)-0) * 10))</f>
         <v>48</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <f t="shared" si="7"/>
         <v>48</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <f t="shared" si="7"/>
         <v>58</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <f t="shared" si="7"/>
         <v>58</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <f t="shared" si="7"/>
         <v>58</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="6">
         <f t="shared" si="7"/>
         <v>58</v>
       </c>
@@ -4189,27 +5424,27 @@
         <f t="shared" si="0"/>
         <v>H — Chainstay length </v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <f t="shared" ref="C10:H10" si="8">IF(RIGHT(C49,1)="°",VALUE(MID(C49,1,LEN(C49)-1)),VALUE(MID(C49,1,LEN(C49)-0) * 10))</f>
         <v>425</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <f t="shared" si="8"/>
         <v>425</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <f t="shared" si="8"/>
         <v>435</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <f t="shared" si="8"/>
         <v>435</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="6">
         <f t="shared" si="8"/>
         <v>435</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="6">
         <f t="shared" si="8"/>
         <v>435</v>
       </c>
@@ -4222,27 +5457,27 @@
         <f t="shared" si="0"/>
         <v>I — Offset </v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <f t="shared" ref="C11:H11" si="9">IF(RIGHT(C50,1)="°",VALUE(MID(C50,1,LEN(C50)-1)),VALUE(MID(C50,1,LEN(C50)-0) * 10))</f>
         <v>44</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <f t="shared" si="9"/>
         <v>44</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="6">
         <f t="shared" si="9"/>
         <v>51</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <f t="shared" si="9"/>
         <v>51</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="6">
         <f t="shared" si="9"/>
         <v>51</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="6">
         <f t="shared" si="9"/>
         <v>51</v>
       </c>
@@ -4255,27 +5490,27 @@
         <f t="shared" si="0"/>
         <v>J — Trail </v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <f t="shared" ref="C12:H12" si="10">IF(RIGHT(C51,1)="°",VALUE(MID(C51,1,LEN(C51)-1)),VALUE(MID(C51,1,LEN(C51)-0) * 10))</f>
         <v>87</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <f t="shared" si="10"/>
         <v>85</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="6">
         <f t="shared" si="10"/>
         <v>83</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="6">
         <f t="shared" si="10"/>
         <v>83</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="6">
         <f t="shared" si="10"/>
         <v>83</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="6">
         <f t="shared" si="10"/>
         <v>83</v>
       </c>
@@ -4288,27 +5523,27 @@
         <f t="shared" si="0"/>
         <v>K — Wheelbase </v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <f t="shared" ref="C13:H13" si="11">IF(RIGHT(C52,1)="°",VALUE(MID(C52,1,LEN(C52)-1)),VALUE(MID(C52,1,LEN(C52)-0) * 10))</f>
         <v>1037</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <f t="shared" si="11"/>
         <v>1053</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="6">
         <f t="shared" si="11"/>
         <v>1098</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="6">
         <f t="shared" si="11"/>
         <v>1113</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="6">
         <f t="shared" si="11"/>
         <v>1132</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="6">
         <f t="shared" si="11"/>
         <v>1154</v>
       </c>
@@ -4321,27 +5556,27 @@
         <f t="shared" si="0"/>
         <v>L — Standover </v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <f t="shared" ref="C14:H14" si="12">IF(RIGHT(C53,1)="°",VALUE(MID(C53,1,LEN(C53)-1)),VALUE(MID(C53,1,LEN(C53)-0) * 10))</f>
         <v>735</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <f t="shared" si="12"/>
         <v>753</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="6">
         <f t="shared" si="12"/>
         <v>750</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="6">
         <f t="shared" si="12"/>
         <v>764</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="6">
         <f t="shared" si="12"/>
         <v>778</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="6">
         <f t="shared" si="12"/>
         <v>816</v>
       </c>
@@ -4354,27 +5589,27 @@
         <f t="shared" si="0"/>
         <v>M — Frame reach </v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <f t="shared" ref="C15:H15" si="13">IF(RIGHT(C54,1)="°",VALUE(MID(C54,1,LEN(C54)-1)),VALUE(MID(C54,1,LEN(C54)-0) * 10))</f>
         <v>370</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="6">
         <f t="shared" si="13"/>
         <v>382</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="6">
         <f t="shared" si="13"/>
         <v>412</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="6">
         <f t="shared" si="13"/>
         <v>427</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="6">
         <f t="shared" si="13"/>
         <v>442</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="6">
         <f t="shared" si="13"/>
         <v>457</v>
       </c>
@@ -4387,27 +5622,27 @@
         <f t="shared" si="0"/>
         <v>N — Frame stack </v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <f t="shared" ref="C16:H16" si="14">IF(RIGHT(C55,1)="°",VALUE(MID(C55,1,LEN(C55)-1)),VALUE(MID(C55,1,LEN(C55)-0) * 10))</f>
         <v>563</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="6">
         <f t="shared" si="14"/>
         <v>563</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="6">
         <f t="shared" si="14"/>
         <v>595</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="6">
         <f t="shared" si="14"/>
         <v>595</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="6">
         <f t="shared" si="14"/>
         <v>604</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="6">
         <f t="shared" si="14"/>
         <v>628</v>
       </c>
@@ -4540,873 +5775,799 @@
       <c r="A25" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25">
         <v>155</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25">
         <v>165</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25">
         <v>176</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25">
         <v>180</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25">
         <v>188</v>
       </c>
-      <c r="H25" s="12">
+      <c r="H25">
         <v>195</v>
       </c>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
     </row>
     <row r="26" spans="1:18" ht="18">
-      <c r="B26" s="11"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12"/>
+      <c r="B26" s="9"/>
     </row>
     <row r="27" spans="1:18" ht="18">
-      <c r="B27" s="11"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="12"/>
+      <c r="B27" s="9"/>
     </row>
     <row r="28" spans="1:18" ht="18">
-      <c r="B28" s="11"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="12"/>
+      <c r="B28" s="9"/>
     </row>
     <row r="29" spans="1:18" ht="18">
-      <c r="B29" s="11"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="12"/>
-      <c r="R29" s="12"/>
+      <c r="B29" s="9"/>
     </row>
     <row r="30" spans="1:18" ht="18">
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="G30" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="H30" s="9" t="s">
+      <c r="H30" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="I30" s="9" t="s">
+      <c r="I30" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="J30" s="9" t="s">
+      <c r="J30" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="K30" s="9" t="s">
+      <c r="K30" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="L30" s="9" t="s">
+      <c r="L30" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="M30" s="9" t="s">
+      <c r="M30" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="N30" s="9" t="s">
+      <c r="N30" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="O30" s="9" t="s">
+      <c r="O30" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="P30" s="9" t="s">
+      <c r="P30" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="Q30" s="9" t="s">
+      <c r="Q30" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="R30" s="9" t="s">
+      <c r="R30" s="8" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="18">
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E31" s="9">
         <v>34.299999999999997</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="F31" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="G31" s="10">
+      <c r="G31" s="9">
         <v>10</v>
       </c>
-      <c r="H31" s="10" t="s">
+      <c r="H31" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="I31" s="10">
+      <c r="I31" s="9">
         <v>54.1</v>
       </c>
-      <c r="J31" s="10">
+      <c r="J31" s="9">
         <v>30.2</v>
       </c>
-      <c r="K31" s="10">
+      <c r="K31" s="9">
         <v>4.8</v>
       </c>
-      <c r="L31" s="10">
+      <c r="L31" s="9">
         <v>42.5</v>
       </c>
-      <c r="M31" s="10">
+      <c r="M31" s="9">
         <v>4.4000000000000004</v>
       </c>
-      <c r="N31" s="10">
+      <c r="N31" s="9">
         <v>8.6999999999999993</v>
       </c>
-      <c r="O31" s="10">
+      <c r="O31" s="9">
         <v>103.7</v>
       </c>
-      <c r="P31" s="10">
+      <c r="P31" s="9">
         <v>73.5</v>
       </c>
-      <c r="Q31" s="10">
+      <c r="Q31" s="9">
         <v>37</v>
       </c>
-      <c r="R31" s="10">
+      <c r="R31" s="9">
         <v>56.3</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="18">
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E32" s="9">
         <v>36.799999999999997</v>
       </c>
-      <c r="F32" s="10" t="s">
+      <c r="F32" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G32" s="9">
         <v>10</v>
       </c>
-      <c r="H32" s="10" t="s">
+      <c r="H32" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="I32" s="10">
+      <c r="I32" s="9">
         <v>55.8</v>
       </c>
-      <c r="J32" s="10">
+      <c r="J32" s="9">
         <v>30.2</v>
       </c>
-      <c r="K32" s="10">
+      <c r="K32" s="9">
         <v>4.8</v>
       </c>
-      <c r="L32" s="10">
+      <c r="L32" s="9">
         <v>42.5</v>
       </c>
-      <c r="M32" s="10">
+      <c r="M32" s="9">
         <v>4.4000000000000004</v>
       </c>
-      <c r="N32" s="10">
+      <c r="N32" s="9">
         <v>8.5</v>
       </c>
-      <c r="O32" s="10">
+      <c r="O32" s="9">
         <v>105.3</v>
       </c>
-      <c r="P32" s="10">
+      <c r="P32" s="9">
         <v>75.3</v>
       </c>
-      <c r="Q32" s="10">
+      <c r="Q32" s="9">
         <v>38.200000000000003</v>
       </c>
-      <c r="R32" s="10">
+      <c r="R32" s="9">
         <v>56.3</v>
       </c>
     </row>
     <row r="33" spans="2:18" ht="18">
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E33" s="9">
         <v>41.9</v>
       </c>
-      <c r="F33" s="10" t="s">
+      <c r="F33" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="G33" s="10">
+      <c r="G33" s="9">
         <v>9</v>
       </c>
-      <c r="H33" s="10" t="s">
+      <c r="H33" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="I33" s="10">
+      <c r="I33" s="9">
         <v>59.9</v>
       </c>
-      <c r="J33" s="10">
+      <c r="J33" s="9">
         <v>31.1</v>
       </c>
-      <c r="K33" s="10">
+      <c r="K33" s="9">
         <v>5.8</v>
       </c>
-      <c r="L33" s="10">
+      <c r="L33" s="9">
         <v>43.5</v>
       </c>
-      <c r="M33" s="10">
+      <c r="M33" s="9">
         <v>5.0999999999999996</v>
       </c>
-      <c r="N33" s="10">
+      <c r="N33" s="9">
         <v>8.3000000000000007</v>
       </c>
-      <c r="O33" s="10">
+      <c r="O33" s="9">
         <v>109.8</v>
       </c>
-      <c r="P33" s="10">
+      <c r="P33" s="9">
         <v>75</v>
       </c>
-      <c r="Q33" s="10">
+      <c r="Q33" s="9">
         <v>41.2</v>
       </c>
-      <c r="R33" s="10">
+      <c r="R33" s="9">
         <v>59.5</v>
       </c>
     </row>
     <row r="34" spans="2:18" ht="18">
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E34" s="9">
         <v>44.4</v>
       </c>
-      <c r="F34" s="10" t="s">
+      <c r="F34" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="G34" s="10">
+      <c r="G34" s="9">
         <v>9</v>
       </c>
-      <c r="H34" s="10" t="s">
+      <c r="H34" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="I34" s="10">
+      <c r="I34" s="9">
         <v>61.7</v>
       </c>
-      <c r="J34" s="10">
+      <c r="J34" s="9">
         <v>31.1</v>
       </c>
-      <c r="K34" s="10">
+      <c r="K34" s="9">
         <v>5.8</v>
       </c>
-      <c r="L34" s="10">
+      <c r="L34" s="9">
         <v>43.5</v>
       </c>
-      <c r="M34" s="10">
+      <c r="M34" s="9">
         <v>5.0999999999999996</v>
       </c>
-      <c r="N34" s="10">
+      <c r="N34" s="9">
         <v>8.3000000000000007</v>
       </c>
-      <c r="O34" s="10">
+      <c r="O34" s="9">
         <v>111.3</v>
       </c>
-      <c r="P34" s="10">
+      <c r="P34" s="9">
         <v>76.400000000000006</v>
       </c>
-      <c r="Q34" s="10">
+      <c r="Q34" s="9">
         <v>42.7</v>
       </c>
-      <c r="R34" s="10">
+      <c r="R34" s="9">
         <v>59.5</v>
       </c>
     </row>
     <row r="35" spans="2:18" ht="18">
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E35" s="9">
         <v>47</v>
       </c>
-      <c r="F35" s="10" t="s">
+      <c r="F35" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="G35" s="10">
+      <c r="G35" s="9">
         <v>10</v>
       </c>
-      <c r="H35" s="10" t="s">
+      <c r="H35" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="I35" s="10">
+      <c r="I35" s="9">
         <v>63.8</v>
       </c>
-      <c r="J35" s="10">
+      <c r="J35" s="9">
         <v>31.1</v>
       </c>
-      <c r="K35" s="10">
+      <c r="K35" s="9">
         <v>5.8</v>
       </c>
-      <c r="L35" s="10">
+      <c r="L35" s="9">
         <v>43.5</v>
       </c>
-      <c r="M35" s="10">
+      <c r="M35" s="9">
         <v>5.0999999999999996</v>
       </c>
-      <c r="N35" s="10">
+      <c r="N35" s="9">
         <v>8.3000000000000007</v>
       </c>
-      <c r="O35" s="10">
+      <c r="O35" s="9">
         <v>113.2</v>
       </c>
-      <c r="P35" s="10">
+      <c r="P35" s="9">
         <v>77.8</v>
       </c>
-      <c r="Q35" s="10">
+      <c r="Q35" s="9">
         <v>44.2</v>
       </c>
-      <c r="R35" s="10">
+      <c r="R35" s="9">
         <v>60.4</v>
       </c>
     </row>
     <row r="36" spans="2:18" ht="18">
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E36" s="9">
         <v>52.1</v>
       </c>
-      <c r="F36" s="10" t="s">
+      <c r="F36" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="G36" s="10">
+      <c r="G36" s="9">
         <v>12</v>
       </c>
-      <c r="H36" s="10" t="s">
+      <c r="H36" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="I36" s="10">
+      <c r="I36" s="9">
         <v>65.900000000000006</v>
       </c>
-      <c r="J36" s="10">
+      <c r="J36" s="9">
         <v>31.1</v>
       </c>
-      <c r="K36" s="10">
+      <c r="K36" s="9">
         <v>5.8</v>
       </c>
-      <c r="L36" s="10">
+      <c r="L36" s="9">
         <v>43.5</v>
       </c>
-      <c r="M36" s="10">
+      <c r="M36" s="9">
         <v>5.0999999999999996</v>
       </c>
-      <c r="N36" s="10">
+      <c r="N36" s="9">
         <v>8.3000000000000007</v>
       </c>
-      <c r="O36" s="10">
+      <c r="O36" s="9">
         <v>115.4</v>
       </c>
-      <c r="P36" s="10">
+      <c r="P36" s="9">
         <v>81.599999999999994</v>
       </c>
-      <c r="Q36" s="10">
+      <c r="Q36" s="9">
         <v>45.7</v>
       </c>
-      <c r="R36" s="10">
+      <c r="R36" s="9">
         <v>62.8</v>
       </c>
     </row>
     <row r="39" spans="2:18" ht="18">
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E39" s="10" t="s">
+      <c r="E39" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="F39" s="10" t="s">
+      <c r="F39" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="G39" s="10" t="s">
+      <c r="G39" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="H39" s="10" t="s">
+      <c r="H39" s="9" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="40" spans="2:18" ht="18">
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D40" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E40" s="10" t="s">
+      <c r="E40" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F40" s="10" t="s">
+      <c r="F40" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="G40" s="10" t="s">
+      <c r="G40" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="H40" s="10" t="s">
+      <c r="H40" s="9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="41" spans="2:18" ht="18">
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="D41" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="E41" s="10" t="s">
+      <c r="E41" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="F41" s="10" t="s">
+      <c r="F41" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="G41" s="10" t="s">
+      <c r="G41" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="H41" s="10" t="s">
+      <c r="H41" s="9" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="42" spans="2:18" ht="18">
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="C42" s="10">
+      <c r="C42" s="9">
         <v>34.299999999999997</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D42" s="9">
         <v>36.799999999999997</v>
       </c>
-      <c r="E42" s="10">
+      <c r="E42" s="9">
         <v>41.9</v>
       </c>
-      <c r="F42" s="10">
+      <c r="F42" s="9">
         <v>44.4</v>
       </c>
-      <c r="G42" s="10">
+      <c r="G42" s="9">
         <v>47</v>
       </c>
-      <c r="H42" s="10">
+      <c r="H42" s="9">
         <v>52.1</v>
       </c>
     </row>
     <row r="43" spans="2:18" ht="18">
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="D43" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="E43" s="10" t="s">
+      <c r="E43" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="F43" s="10" t="s">
+      <c r="F43" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="G43" s="10" t="s">
+      <c r="G43" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="H43" s="10" t="s">
+      <c r="H43" s="9" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="44" spans="2:18" ht="18">
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="C44" s="10">
+      <c r="C44" s="9">
         <v>10</v>
       </c>
-      <c r="D44" s="10">
+      <c r="D44" s="9">
         <v>10</v>
       </c>
-      <c r="E44" s="10">
+      <c r="E44" s="9">
         <v>9</v>
       </c>
-      <c r="F44" s="10">
+      <c r="F44" s="9">
         <v>9</v>
       </c>
-      <c r="G44" s="10">
+      <c r="G44" s="9">
         <v>10</v>
       </c>
-      <c r="H44" s="10">
+      <c r="H44" s="9">
         <v>12</v>
       </c>
     </row>
     <row r="45" spans="2:18" ht="18">
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C45" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="D45" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="E45" s="10" t="s">
+      <c r="E45" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="F45" s="10" t="s">
+      <c r="F45" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="G45" s="10" t="s">
+      <c r="G45" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="H45" s="10" t="s">
+      <c r="H45" s="9" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="46" spans="2:18" ht="18">
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="C46" s="10">
+      <c r="C46" s="9">
         <v>54.1</v>
       </c>
-      <c r="D46" s="10">
+      <c r="D46" s="9">
         <v>55.8</v>
       </c>
-      <c r="E46" s="10">
+      <c r="E46" s="9">
         <v>59.9</v>
       </c>
-      <c r="F46" s="10">
+      <c r="F46" s="9">
         <v>61.7</v>
       </c>
-      <c r="G46" s="10">
+      <c r="G46" s="9">
         <v>63.8</v>
       </c>
-      <c r="H46" s="10">
+      <c r="H46" s="9">
         <v>65.900000000000006</v>
       </c>
     </row>
     <row r="47" spans="2:18" ht="18">
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="C47" s="10">
+      <c r="C47" s="9">
         <v>30.2</v>
       </c>
-      <c r="D47" s="10">
+      <c r="D47" s="9">
         <v>30.2</v>
       </c>
-      <c r="E47" s="10">
+      <c r="E47" s="9">
         <v>31.1</v>
       </c>
-      <c r="F47" s="10">
+      <c r="F47" s="9">
         <v>31.1</v>
       </c>
-      <c r="G47" s="10">
+      <c r="G47" s="9">
         <v>31.1</v>
       </c>
-      <c r="H47" s="10">
+      <c r="H47" s="9">
         <v>31.1</v>
       </c>
     </row>
     <row r="48" spans="2:18" ht="18">
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="C48" s="10">
+      <c r="C48" s="9">
         <v>4.8</v>
       </c>
-      <c r="D48" s="10">
+      <c r="D48" s="9">
         <v>4.8</v>
       </c>
-      <c r="E48" s="10">
+      <c r="E48" s="9">
         <v>5.8</v>
       </c>
-      <c r="F48" s="10">
+      <c r="F48" s="9">
         <v>5.8</v>
       </c>
-      <c r="G48" s="10">
+      <c r="G48" s="9">
         <v>5.8</v>
       </c>
-      <c r="H48" s="10">
+      <c r="H48" s="9">
         <v>5.8</v>
       </c>
     </row>
     <row r="49" spans="2:8" ht="18">
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="C49" s="10">
+      <c r="C49" s="9">
         <v>42.5</v>
       </c>
-      <c r="D49" s="10">
+      <c r="D49" s="9">
         <v>42.5</v>
       </c>
-      <c r="E49" s="10">
+      <c r="E49" s="9">
         <v>43.5</v>
       </c>
-      <c r="F49" s="10">
+      <c r="F49" s="9">
         <v>43.5</v>
       </c>
-      <c r="G49" s="10">
+      <c r="G49" s="9">
         <v>43.5</v>
       </c>
-      <c r="H49" s="10">
+      <c r="H49" s="9">
         <v>43.5</v>
       </c>
     </row>
     <row r="50" spans="2:8" ht="18">
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="C50" s="10">
+      <c r="C50" s="9">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D50" s="10">
+      <c r="D50" s="9">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E50" s="10">
+      <c r="E50" s="9">
         <v>5.0999999999999996</v>
       </c>
-      <c r="F50" s="10">
+      <c r="F50" s="9">
         <v>5.0999999999999996</v>
       </c>
-      <c r="G50" s="10">
+      <c r="G50" s="9">
         <v>5.0999999999999996</v>
       </c>
-      <c r="H50" s="10">
+      <c r="H50" s="9">
         <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="51" spans="2:8" ht="18">
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="C51" s="10">
+      <c r="C51" s="9">
         <v>8.6999999999999993</v>
       </c>
-      <c r="D51" s="10">
+      <c r="D51" s="9">
         <v>8.5</v>
       </c>
-      <c r="E51" s="10">
+      <c r="E51" s="9">
         <v>8.3000000000000007</v>
       </c>
-      <c r="F51" s="10">
+      <c r="F51" s="9">
         <v>8.3000000000000007</v>
       </c>
-      <c r="G51" s="10">
+      <c r="G51" s="9">
         <v>8.3000000000000007</v>
       </c>
-      <c r="H51" s="10">
+      <c r="H51" s="9">
         <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="52" spans="2:8" ht="18">
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="C52" s="10">
+      <c r="C52" s="9">
         <v>103.7</v>
       </c>
-      <c r="D52" s="10">
+      <c r="D52" s="9">
         <v>105.3</v>
       </c>
-      <c r="E52" s="10">
+      <c r="E52" s="9">
         <v>109.8</v>
       </c>
-      <c r="F52" s="10">
+      <c r="F52" s="9">
         <v>111.3</v>
       </c>
-      <c r="G52" s="10">
+      <c r="G52" s="9">
         <v>113.2</v>
       </c>
-      <c r="H52" s="10">
+      <c r="H52" s="9">
         <v>115.4</v>
       </c>
     </row>
     <row r="53" spans="2:8" ht="18">
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="C53" s="10">
+      <c r="C53" s="9">
         <v>73.5</v>
       </c>
-      <c r="D53" s="10">
+      <c r="D53" s="9">
         <v>75.3</v>
       </c>
-      <c r="E53" s="10">
+      <c r="E53" s="9">
         <v>75</v>
       </c>
-      <c r="F53" s="10">
+      <c r="F53" s="9">
         <v>76.400000000000006</v>
       </c>
-      <c r="G53" s="10">
+      <c r="G53" s="9">
         <v>77.8</v>
       </c>
-      <c r="H53" s="10">
+      <c r="H53" s="9">
         <v>81.599999999999994</v>
       </c>
     </row>
     <row r="54" spans="2:8" ht="18">
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="C54" s="10">
+      <c r="C54" s="9">
         <v>37</v>
       </c>
-      <c r="D54" s="10">
+      <c r="D54" s="9">
         <v>38.200000000000003</v>
       </c>
-      <c r="E54" s="10">
+      <c r="E54" s="9">
         <v>41.2</v>
       </c>
-      <c r="F54" s="10">
+      <c r="F54" s="9">
         <v>42.7</v>
       </c>
-      <c r="G54" s="10">
+      <c r="G54" s="9">
         <v>44.2</v>
       </c>
-      <c r="H54" s="10">
+      <c r="H54" s="9">
         <v>45.7</v>
       </c>
     </row>
     <row r="55" spans="2:8" ht="18">
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="C55" s="10">
+      <c r="C55" s="9">
         <v>56.3</v>
       </c>
-      <c r="D55" s="10">
+      <c r="D55" s="9">
         <v>56.3</v>
       </c>
-      <c r="E55" s="10">
+      <c r="E55" s="9">
         <v>59.5</v>
       </c>
-      <c r="F55" s="10">
+      <c r="F55" s="9">
         <v>59.5</v>
       </c>
-      <c r="G55" s="10">
+      <c r="G55" s="9">
         <v>60.4</v>
       </c>
-      <c r="H55" s="10">
+      <c r="H55" s="9">
         <v>62.8</v>
       </c>
     </row>
@@ -5430,38 +6591,38 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="15.33203125" style="7" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="7"/>
+    <col min="1" max="1" width="29.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="15.33203125" style="6" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="7" t="str">
-        <f>B41</f>
+      <c r="B1" s="6" t="str">
+        <f t="shared" ref="B1:G1" si="0">B41</f>
         <v>Frame size letter </v>
       </c>
-      <c r="C1" s="7" t="str">
-        <f>C41</f>
+      <c r="C1" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>S</v>
       </c>
-      <c r="D1" s="7" t="str">
-        <f>D41</f>
+      <c r="D1" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>M</v>
       </c>
-      <c r="E1" s="7" t="str">
-        <f>E41</f>
+      <c r="E1" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>ML</v>
       </c>
-      <c r="F1" s="7" t="str">
-        <f>F41</f>
+      <c r="F1" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>L</v>
       </c>
-      <c r="G1" s="7" t="str">
-        <f>G41</f>
+      <c r="G1" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>XL</v>
       </c>
     </row>
@@ -5469,23 +6630,23 @@
       <c r="A2" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B2" s="7" t="str">
-        <f>B42</f>
+      <c r="B2" s="6" t="str">
+        <f t="shared" ref="B2:B17" si="1">B42</f>
         <v>Wheel size </v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>29</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <v>29</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="6">
         <v>29</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <v>29</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="6">
         <v>29</v>
       </c>
     </row>
@@ -5493,57 +6654,57 @@
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="7" t="str">
-        <f>B43</f>
+      <c r="B3" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>A — Seat tube </v>
       </c>
-      <c r="C3" s="7">
-        <f>IF(RIGHT(C43,1)="°",VALUE(MID(C43,1,LEN(C43)-1)),VALUE(MID(C43,1,LEN(C43)-0) * 10))</f>
+      <c r="C3" s="6">
+        <f t="shared" ref="C3:G17" si="2">IF(RIGHT(C43,1)="°",VALUE(MID(C43,1,LEN(C43)-1)),VALUE(MID(C43,1,LEN(C43)-0) * 10))</f>
         <v>393</v>
       </c>
-      <c r="D3" s="7">
-        <f>IF(RIGHT(D43,1)="°",VALUE(MID(D43,1,LEN(D43)-1)),VALUE(MID(D43,1,LEN(D43)-0) * 10))</f>
+      <c r="D3" s="6">
+        <f t="shared" si="2"/>
         <v>419</v>
       </c>
-      <c r="E3" s="7">
-        <f>IF(RIGHT(E43,1)="°",VALUE(MID(E43,1,LEN(E43)-1)),VALUE(MID(E43,1,LEN(E43)-0) * 10))</f>
+      <c r="E3" s="6">
+        <f t="shared" si="2"/>
         <v>444</v>
       </c>
-      <c r="F3" s="7">
-        <f>IF(RIGHT(F43,1)="°",VALUE(MID(F43,1,LEN(F43)-1)),VALUE(MID(F43,1,LEN(F43)-0) * 10))</f>
+      <c r="F3" s="6">
+        <f t="shared" si="2"/>
         <v>470</v>
       </c>
-      <c r="G3" s="7">
-        <f>IF(RIGHT(G43,1)="°",VALUE(MID(G43,1,LEN(G43)-1)),VALUE(MID(G43,1,LEN(G43)-0) * 10))</f>
+      <c r="G3" s="6">
+        <f t="shared" si="2"/>
         <v>510</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="B4" s="7" t="str">
-        <f>B44</f>
+      <c r="B4" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>B — Seat tube angle </v>
       </c>
-      <c r="C4" s="7">
-        <f>IF(RIGHT(C44,1)="°",VALUE(MID(C44,1,LEN(C44)-1)),VALUE(MID(C44,1,LEN(C44)-0) * 10))</f>
+      <c r="C4" s="6">
+        <f t="shared" si="2"/>
         <v>72.8</v>
       </c>
-      <c r="D4" s="7">
-        <f>IF(RIGHT(D44,1)="°",VALUE(MID(D44,1,LEN(D44)-1)),VALUE(MID(D44,1,LEN(D44)-0) * 10))</f>
+      <c r="D4" s="6">
+        <f t="shared" si="2"/>
         <v>72.8</v>
       </c>
-      <c r="E4" s="7">
-        <f>IF(RIGHT(E44,1)="°",VALUE(MID(E44,1,LEN(E44)-1)),VALUE(MID(E44,1,LEN(E44)-0) * 10))</f>
+      <c r="E4" s="6">
+        <f t="shared" si="2"/>
         <v>72.8</v>
       </c>
-      <c r="F4" s="7">
-        <f>IF(RIGHT(F44,1)="°",VALUE(MID(F44,1,LEN(F44)-1)),VALUE(MID(F44,1,LEN(F44)-0) * 10))</f>
+      <c r="F4" s="6">
+        <f t="shared" si="2"/>
         <v>72.8</v>
       </c>
-      <c r="G4" s="7">
-        <f>IF(RIGHT(G44,1)="°",VALUE(MID(G44,1,LEN(G44)-1)),VALUE(MID(G44,1,LEN(G44)-0) * 10))</f>
+      <c r="G4" s="6">
+        <f t="shared" si="2"/>
         <v>72.8</v>
       </c>
     </row>
@@ -5551,28 +6712,28 @@
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="7" t="str">
-        <f>B45</f>
+      <c r="B5" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>Effective seat tube angle </v>
       </c>
-      <c r="C5" s="7">
-        <f>IF(RIGHT(C45,1)="°",VALUE(MID(C45,1,LEN(C45)-1)),VALUE(MID(C45,1,LEN(C45)-0) * 10))</f>
+      <c r="C5" s="6">
+        <f t="shared" si="2"/>
         <v>73.8</v>
       </c>
-      <c r="D5" s="7">
-        <f>IF(RIGHT(D45,1)="°",VALUE(MID(D45,1,LEN(D45)-1)),VALUE(MID(D45,1,LEN(D45)-0) * 10))</f>
+      <c r="D5" s="6">
+        <f t="shared" si="2"/>
         <v>73.8</v>
       </c>
-      <c r="E5" s="7">
-        <f>IF(RIGHT(E45,1)="°",VALUE(MID(E45,1,LEN(E45)-1)),VALUE(MID(E45,1,LEN(E45)-0) * 10))</f>
+      <c r="E5" s="6">
+        <f t="shared" si="2"/>
         <v>73.8</v>
       </c>
-      <c r="F5" s="7">
-        <f>IF(RIGHT(F45,1)="°",VALUE(MID(F45,1,LEN(F45)-1)),VALUE(MID(F45,1,LEN(F45)-0) * 10))</f>
+      <c r="F5" s="6">
+        <f t="shared" si="2"/>
         <v>73.8</v>
       </c>
-      <c r="G5" s="7">
-        <f>IF(RIGHT(G45,1)="°",VALUE(MID(G45,1,LEN(G45)-1)),VALUE(MID(G45,1,LEN(G45)-0) * 10))</f>
+      <c r="G5" s="6">
+        <f t="shared" si="2"/>
         <v>73.8</v>
       </c>
     </row>
@@ -5580,28 +6741,28 @@
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="7" t="str">
-        <f>B46</f>
+      <c r="B6" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>C — Head tube length </v>
       </c>
-      <c r="C6" s="7">
-        <f>IF(RIGHT(C46,1)="°",VALUE(MID(C46,1,LEN(C46)-1)),VALUE(MID(C46,1,LEN(C46)-0) * 10))</f>
+      <c r="C6" s="6">
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
-      <c r="D6" s="7">
-        <f>IF(RIGHT(D46,1)="°",VALUE(MID(D46,1,LEN(D46)-1)),VALUE(MID(D46,1,LEN(D46)-0) * 10))</f>
+      <c r="D6" s="6">
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
-      <c r="E6" s="7">
-        <f>IF(RIGHT(E46,1)="°",VALUE(MID(E46,1,LEN(E46)-1)),VALUE(MID(E46,1,LEN(E46)-0) * 10))</f>
+      <c r="E6" s="6">
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
-      <c r="F6" s="7">
-        <f>IF(RIGHT(F46,1)="°",VALUE(MID(F46,1,LEN(F46)-1)),VALUE(MID(F46,1,LEN(F46)-0) * 10))</f>
+      <c r="F6" s="6">
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
-      <c r="G6" s="7">
-        <f>IF(RIGHT(G46,1)="°",VALUE(MID(G46,1,LEN(G46)-1)),VALUE(MID(G46,1,LEN(G46)-0) * 10))</f>
+      <c r="G6" s="6">
+        <f t="shared" si="2"/>
         <v>105</v>
       </c>
     </row>
@@ -5609,28 +6770,28 @@
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="7" t="str">
-        <f>B47</f>
+      <c r="B7" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>D — Head angle </v>
       </c>
-      <c r="C7" s="7">
-        <f>IF(RIGHT(C47,1)="°",VALUE(MID(C47,1,LEN(C47)-1)),VALUE(MID(C47,1,LEN(C47)-0) * 10))</f>
+      <c r="C7" s="6">
+        <f t="shared" si="2"/>
         <v>68.8</v>
       </c>
-      <c r="D7" s="7">
-        <f>IF(RIGHT(D47,1)="°",VALUE(MID(D47,1,LEN(D47)-1)),VALUE(MID(D47,1,LEN(D47)-0) * 10))</f>
+      <c r="D7" s="6">
+        <f t="shared" si="2"/>
         <v>68.8</v>
       </c>
-      <c r="E7" s="7">
-        <f>IF(RIGHT(E47,1)="°",VALUE(MID(E47,1,LEN(E47)-1)),VALUE(MID(E47,1,LEN(E47)-0) * 10))</f>
+      <c r="E7" s="6">
+        <f t="shared" si="2"/>
         <v>68.8</v>
       </c>
-      <c r="F7" s="7">
-        <f>IF(RIGHT(F47,1)="°",VALUE(MID(F47,1,LEN(F47)-1)),VALUE(MID(F47,1,LEN(F47)-0) * 10))</f>
+      <c r="F7" s="6">
+        <f t="shared" si="2"/>
         <v>68.8</v>
       </c>
-      <c r="G7" s="7">
-        <f>IF(RIGHT(G47,1)="°",VALUE(MID(G47,1,LEN(G47)-1)),VALUE(MID(G47,1,LEN(G47)-0) * 10))</f>
+      <c r="G7" s="6">
+        <f t="shared" si="2"/>
         <v>68.8</v>
       </c>
     </row>
@@ -5638,28 +6799,28 @@
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="7" t="str">
-        <f>B48</f>
+      <c r="B8" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>E — Effective top tube </v>
       </c>
-      <c r="C8" s="7">
-        <f>IF(RIGHT(C48,1)="°",VALUE(MID(C48,1,LEN(C48)-1)),VALUE(MID(C48,1,LEN(C48)-0) * 10))</f>
+      <c r="C8" s="6">
+        <f t="shared" si="2"/>
         <v>570</v>
       </c>
-      <c r="D8" s="7">
-        <f>IF(RIGHT(D48,1)="°",VALUE(MID(D48,1,LEN(D48)-1)),VALUE(MID(D48,1,LEN(D48)-0) * 10))</f>
+      <c r="D8" s="6">
+        <f t="shared" si="2"/>
         <v>595</v>
       </c>
-      <c r="E8" s="7">
-        <f>IF(RIGHT(E48,1)="°",VALUE(MID(E48,1,LEN(E48)-1)),VALUE(MID(E48,1,LEN(E48)-0) * 10))</f>
+      <c r="E8" s="6">
+        <f t="shared" si="2"/>
         <v>610</v>
       </c>
-      <c r="F8" s="7">
-        <f>IF(RIGHT(F48,1)="°",VALUE(MID(F48,1,LEN(F48)-1)),VALUE(MID(F48,1,LEN(F48)-0) * 10))</f>
+      <c r="F8" s="6">
+        <f t="shared" si="2"/>
         <v>625</v>
       </c>
-      <c r="G8" s="7">
-        <f>IF(RIGHT(G48,1)="°",VALUE(MID(G48,1,LEN(G48)-1)),VALUE(MID(G48,1,LEN(G48)-0) * 10))</f>
+      <c r="G8" s="6">
+        <f t="shared" si="2"/>
         <v>659</v>
       </c>
     </row>
@@ -5667,28 +6828,28 @@
       <c r="A9" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B9" s="7" t="str">
-        <f>B49</f>
+      <c r="B9" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>F — Bottom bracket height </v>
       </c>
-      <c r="C9" s="7">
-        <f>IF(RIGHT(C49,1)="°",VALUE(MID(C49,1,LEN(C49)-1)),VALUE(MID(C49,1,LEN(C49)-0) * 10))</f>
+      <c r="C9" s="6">
+        <f t="shared" si="2"/>
         <v>313</v>
       </c>
-      <c r="D9" s="7">
-        <f>IF(RIGHT(D49,1)="°",VALUE(MID(D49,1,LEN(D49)-1)),VALUE(MID(D49,1,LEN(D49)-0) * 10))</f>
+      <c r="D9" s="6">
+        <f t="shared" si="2"/>
         <v>313</v>
       </c>
-      <c r="E9" s="7">
-        <f>IF(RIGHT(E49,1)="°",VALUE(MID(E49,1,LEN(E49)-1)),VALUE(MID(E49,1,LEN(E49)-0) * 10))</f>
+      <c r="E9" s="6">
+        <f t="shared" si="2"/>
         <v>313</v>
       </c>
-      <c r="F9" s="7">
-        <f>IF(RIGHT(F49,1)="°",VALUE(MID(F49,1,LEN(F49)-1)),VALUE(MID(F49,1,LEN(F49)-0) * 10))</f>
+      <c r="F9" s="6">
+        <f t="shared" si="2"/>
         <v>313</v>
       </c>
-      <c r="G9" s="7">
-        <f>IF(RIGHT(G49,1)="°",VALUE(MID(G49,1,LEN(G49)-1)),VALUE(MID(G49,1,LEN(G49)-0) * 10))</f>
+      <c r="G9" s="6">
+        <f t="shared" si="2"/>
         <v>313</v>
       </c>
     </row>
@@ -5696,28 +6857,28 @@
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="7" t="str">
-        <f>B50</f>
+      <c r="B10" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>G — Bottom bracket drop </v>
       </c>
-      <c r="C10" s="7">
-        <f>IF(RIGHT(C50,1)="°",VALUE(MID(C50,1,LEN(C50)-1)),VALUE(MID(C50,1,LEN(C50)-0) * 10))</f>
+      <c r="C10" s="6">
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="D10" s="7">
-        <f>IF(RIGHT(D50,1)="°",VALUE(MID(D50,1,LEN(D50)-1)),VALUE(MID(D50,1,LEN(D50)-0) * 10))</f>
+      <c r="D10" s="6">
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="E10" s="7">
-        <f>IF(RIGHT(E50,1)="°",VALUE(MID(E50,1,LEN(E50)-1)),VALUE(MID(E50,1,LEN(E50)-0) * 10))</f>
+      <c r="E10" s="6">
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="F10" s="7">
-        <f>IF(RIGHT(F50,1)="°",VALUE(MID(F50,1,LEN(F50)-1)),VALUE(MID(F50,1,LEN(F50)-0) * 10))</f>
+      <c r="F10" s="6">
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="G10" s="7">
-        <f>IF(RIGHT(G50,1)="°",VALUE(MID(G50,1,LEN(G50)-1)),VALUE(MID(G50,1,LEN(G50)-0) * 10))</f>
+      <c r="G10" s="6">
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
     </row>
@@ -5725,28 +6886,28 @@
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="7" t="str">
-        <f>B51</f>
+      <c r="B11" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>H — Chainstay length </v>
       </c>
-      <c r="C11" s="7">
-        <f>IF(RIGHT(C51,1)="°",VALUE(MID(C51,1,LEN(C51)-1)),VALUE(MID(C51,1,LEN(C51)-0) * 10))</f>
+      <c r="C11" s="6">
+        <f t="shared" si="2"/>
         <v>432</v>
       </c>
-      <c r="D11" s="7">
-        <f>IF(RIGHT(D51,1)="°",VALUE(MID(D51,1,LEN(D51)-1)),VALUE(MID(D51,1,LEN(D51)-0) * 10))</f>
+      <c r="D11" s="6">
+        <f t="shared" si="2"/>
         <v>432</v>
       </c>
-      <c r="E11" s="7">
-        <f>IF(RIGHT(E51,1)="°",VALUE(MID(E51,1,LEN(E51)-1)),VALUE(MID(E51,1,LEN(E51)-0) * 10))</f>
+      <c r="E11" s="6">
+        <f t="shared" si="2"/>
         <v>432</v>
       </c>
-      <c r="F11" s="7">
-        <f>IF(RIGHT(F51,1)="°",VALUE(MID(F51,1,LEN(F51)-1)),VALUE(MID(F51,1,LEN(F51)-0) * 10))</f>
+      <c r="F11" s="6">
+        <f t="shared" si="2"/>
         <v>432</v>
       </c>
-      <c r="G11" s="7">
-        <f>IF(RIGHT(G51,1)="°",VALUE(MID(G51,1,LEN(G51)-1)),VALUE(MID(G51,1,LEN(G51)-0) * 10))</f>
+      <c r="G11" s="6">
+        <f t="shared" si="2"/>
         <v>432</v>
       </c>
     </row>
@@ -5754,28 +6915,28 @@
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="7" t="str">
-        <f>B52</f>
+      <c r="B12" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>I — Offset </v>
       </c>
-      <c r="C12" s="7">
-        <f>IF(RIGHT(C52,1)="°",VALUE(MID(C52,1,LEN(C52)-1)),VALUE(MID(C52,1,LEN(C52)-0) * 10))</f>
+      <c r="C12" s="6">
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="D12" s="7">
-        <f>IF(RIGHT(D52,1)="°",VALUE(MID(D52,1,LEN(D52)-1)),VALUE(MID(D52,1,LEN(D52)-0) * 10))</f>
+      <c r="D12" s="6">
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="E12" s="7">
-        <f>IF(RIGHT(E52,1)="°",VALUE(MID(E52,1,LEN(E52)-1)),VALUE(MID(E52,1,LEN(E52)-0) * 10))</f>
+      <c r="E12" s="6">
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="F12" s="7">
-        <f>IF(RIGHT(F52,1)="°",VALUE(MID(F52,1,LEN(F52)-1)),VALUE(MID(F52,1,LEN(F52)-0) * 10))</f>
+      <c r="F12" s="6">
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="G12" s="7">
-        <f>IF(RIGHT(G52,1)="°",VALUE(MID(G52,1,LEN(G52)-1)),VALUE(MID(G52,1,LEN(G52)-0) * 10))</f>
+      <c r="G12" s="6">
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
     </row>
@@ -5783,28 +6944,28 @@
       <c r="A13" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B13" s="7" t="str">
-        <f>B53</f>
+      <c r="B13" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>J — Trail </v>
       </c>
-      <c r="C13" s="7">
-        <f>IF(RIGHT(C53,1)="°",VALUE(MID(C53,1,LEN(C53)-1)),VALUE(MID(C53,1,LEN(C53)-0) * 10))</f>
+      <c r="C13" s="6">
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="D13" s="7">
-        <f>IF(RIGHT(D53,1)="°",VALUE(MID(D53,1,LEN(D53)-1)),VALUE(MID(D53,1,LEN(D53)-0) * 10))</f>
+      <c r="D13" s="6">
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="E13" s="7">
-        <f>IF(RIGHT(E53,1)="°",VALUE(MID(E53,1,LEN(E53)-1)),VALUE(MID(E53,1,LEN(E53)-0) * 10))</f>
+      <c r="E13" s="6">
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="F13" s="7">
-        <f>IF(RIGHT(F53,1)="°",VALUE(MID(F53,1,LEN(F53)-1)),VALUE(MID(F53,1,LEN(F53)-0) * 10))</f>
+      <c r="F13" s="6">
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="G13" s="7">
-        <f>IF(RIGHT(G53,1)="°",VALUE(MID(G53,1,LEN(G53)-1)),VALUE(MID(G53,1,LEN(G53)-0) * 10))</f>
+      <c r="G13" s="6">
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
     </row>
@@ -5812,28 +6973,28 @@
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="7" t="str">
-        <f>B54</f>
+      <c r="B14" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>K — Wheelbase </v>
       </c>
-      <c r="C14" s="7">
-        <f>IF(RIGHT(C54,1)="°",VALUE(MID(C54,1,LEN(C54)-1)),VALUE(MID(C54,1,LEN(C54)-0) * 10))</f>
+      <c r="C14" s="6">
+        <f t="shared" si="2"/>
         <v>1078</v>
       </c>
-      <c r="D14" s="7">
-        <f>IF(RIGHT(D54,1)="°",VALUE(MID(D54,1,LEN(D54)-1)),VALUE(MID(D54,1,LEN(D54)-0) * 10))</f>
+      <c r="D14" s="6">
+        <f t="shared" si="2"/>
         <v>1103</v>
       </c>
-      <c r="E14" s="7">
-        <f>IF(RIGHT(E54,1)="°",VALUE(MID(E54,1,LEN(E54)-1)),VALUE(MID(E54,1,LEN(E54)-0) * 10))</f>
+      <c r="E14" s="6">
+        <f t="shared" si="2"/>
         <v>1118</v>
       </c>
-      <c r="F14" s="7">
-        <f>IF(RIGHT(F54,1)="°",VALUE(MID(F54,1,LEN(F54)-1)),VALUE(MID(F54,1,LEN(F54)-0) * 10))</f>
+      <c r="F14" s="6">
+        <f t="shared" si="2"/>
         <v>1133</v>
       </c>
-      <c r="G14" s="7">
-        <f>IF(RIGHT(G54,1)="°",VALUE(MID(G54,1,LEN(G54)-1)),VALUE(MID(G54,1,LEN(G54)-0) * 10))</f>
+      <c r="G14" s="6">
+        <f t="shared" si="2"/>
         <v>1168</v>
       </c>
     </row>
@@ -5841,28 +7002,28 @@
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="7" t="str">
-        <f>B55</f>
+      <c r="B15" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>L — Standover </v>
       </c>
-      <c r="C15" s="7">
-        <f>IF(RIGHT(C55,1)="°",VALUE(MID(C55,1,LEN(C55)-1)),VALUE(MID(C55,1,LEN(C55)-0) * 10))</f>
+      <c r="C15" s="6">
+        <f t="shared" si="2"/>
         <v>715</v>
       </c>
-      <c r="D15" s="7">
-        <f>IF(RIGHT(D55,1)="°",VALUE(MID(D55,1,LEN(D55)-1)),VALUE(MID(D55,1,LEN(D55)-0) * 10))</f>
+      <c r="D15" s="6">
+        <f t="shared" si="2"/>
         <v>755</v>
       </c>
-      <c r="E15" s="7">
-        <f>IF(RIGHT(E55,1)="°",VALUE(MID(E55,1,LEN(E55)-1)),VALUE(MID(E55,1,LEN(E55)-0) * 10))</f>
+      <c r="E15" s="6">
+        <f t="shared" si="2"/>
         <v>765</v>
       </c>
-      <c r="F15" s="7">
-        <f>IF(RIGHT(F55,1)="°",VALUE(MID(F55,1,LEN(F55)-1)),VALUE(MID(F55,1,LEN(F55)-0) * 10))</f>
+      <c r="F15" s="6">
+        <f t="shared" si="2"/>
         <v>784</v>
       </c>
-      <c r="G15" s="7">
-        <f>IF(RIGHT(G55,1)="°",VALUE(MID(G55,1,LEN(G55)-1)),VALUE(MID(G55,1,LEN(G55)-0) * 10))</f>
+      <c r="G15" s="6">
+        <f t="shared" si="2"/>
         <v>814</v>
       </c>
     </row>
@@ -5870,28 +7031,28 @@
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="7" t="str">
-        <f>B56</f>
+      <c r="B16" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>M — Frame reach </v>
       </c>
-      <c r="C16" s="7">
-        <f>IF(RIGHT(C56,1)="°",VALUE(MID(C56,1,LEN(C56)-1)),VALUE(MID(C56,1,LEN(C56)-0) * 10))</f>
+      <c r="C16" s="6">
+        <f t="shared" si="2"/>
         <v>395</v>
       </c>
-      <c r="D16" s="7">
-        <f>IF(RIGHT(D56,1)="°",VALUE(MID(D56,1,LEN(D56)-1)),VALUE(MID(D56,1,LEN(D56)-0) * 10))</f>
+      <c r="D16" s="6">
+        <f t="shared" si="2"/>
         <v>420</v>
       </c>
-      <c r="E16" s="7">
-        <f>IF(RIGHT(E56,1)="°",VALUE(MID(E56,1,LEN(E56)-1)),VALUE(MID(E56,1,LEN(E56)-0) * 10))</f>
+      <c r="E16" s="6">
+        <f t="shared" si="2"/>
         <v>435</v>
       </c>
-      <c r="F16" s="7">
-        <f>IF(RIGHT(F56,1)="°",VALUE(MID(F56,1,LEN(F56)-1)),VALUE(MID(F56,1,LEN(F56)-0) * 10))</f>
+      <c r="F16" s="6">
+        <f t="shared" si="2"/>
         <v>450</v>
       </c>
-      <c r="G16" s="7">
-        <f>IF(RIGHT(G56,1)="°",VALUE(MID(G56,1,LEN(G56)-1)),VALUE(MID(G56,1,LEN(G56)-0) * 10))</f>
+      <c r="G16" s="6">
+        <f t="shared" si="2"/>
         <v>480</v>
       </c>
     </row>
@@ -5899,28 +7060,28 @@
       <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="7" t="str">
-        <f>B57</f>
+      <c r="B17" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>N — Frame stack </v>
       </c>
-      <c r="C17" s="7">
-        <f>IF(RIGHT(C57,1)="°",VALUE(MID(C57,1,LEN(C57)-1)),VALUE(MID(C57,1,LEN(C57)-0) * 10))</f>
+      <c r="C17" s="6">
+        <f t="shared" si="2"/>
         <v>600</v>
       </c>
-      <c r="D17" s="7">
-        <f>IF(RIGHT(D57,1)="°",VALUE(MID(D57,1,LEN(D57)-1)),VALUE(MID(D57,1,LEN(D57)-0) * 10))</f>
+      <c r="D17" s="6">
+        <f t="shared" si="2"/>
         <v>600</v>
       </c>
-      <c r="E17" s="7">
-        <f>IF(RIGHT(E57,1)="°",VALUE(MID(E57,1,LEN(E57)-1)),VALUE(MID(E57,1,LEN(E57)-0) * 10))</f>
+      <c r="E17" s="6">
+        <f t="shared" si="2"/>
         <v>600</v>
       </c>
-      <c r="F17" s="7">
-        <f>IF(RIGHT(F57,1)="°",VALUE(MID(F57,1,LEN(F57)-1)),VALUE(MID(F57,1,LEN(F57)-0) * 10))</f>
+      <c r="F17" s="6">
+        <f t="shared" si="2"/>
         <v>600</v>
       </c>
-      <c r="G17" s="7">
-        <f>IF(RIGHT(G57,1)="°",VALUE(MID(G57,1,LEN(G57)-1)),VALUE(MID(G57,1,LEN(G57)-0) * 10))</f>
+      <c r="G17" s="6">
+        <f t="shared" si="2"/>
         <v>614</v>
       </c>
     </row>
@@ -5928,22 +7089,22 @@
       <c r="A18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <v>29</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="6">
         <v>29</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="6">
         <v>29</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="6">
         <v>29</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="6">
         <v>29</v>
       </c>
     </row>
@@ -5951,7 +7112,7 @@
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>186</v>
       </c>
     </row>
@@ -5959,7 +7120,7 @@
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>187</v>
       </c>
     </row>
@@ -5967,7 +7128,7 @@
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>188</v>
       </c>
     </row>
@@ -5975,7 +7136,7 @@
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>189</v>
       </c>
     </row>
@@ -5983,27 +7144,27 @@
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="6">
         <f>2.2*2.54*10</f>
         <v>55.88000000000001</v>
       </c>
-      <c r="D23" s="7">
-        <f t="shared" ref="D23:G23" si="0">2.2*2.54*10</f>
+      <c r="D23" s="6">
+        <f t="shared" ref="D23:G23" si="3">2.2*2.54*10</f>
         <v>55.88000000000001</v>
       </c>
-      <c r="E23" s="7">
-        <f t="shared" si="0"/>
+      <c r="E23" s="6">
+        <f t="shared" si="3"/>
         <v>55.88000000000001</v>
       </c>
-      <c r="F23" s="7">
-        <f t="shared" si="0"/>
+      <c r="F23" s="6">
+        <f t="shared" si="3"/>
         <v>55.88000000000001</v>
       </c>
-      <c r="G23" s="7">
-        <f t="shared" si="0"/>
+      <c r="G23" s="6">
+        <f t="shared" si="3"/>
         <v>55.88000000000001</v>
       </c>
     </row>
@@ -6011,7 +7172,7 @@
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="6" t="s">
         <v>110</v>
       </c>
     </row>
@@ -6019,22 +7180,22 @@
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="6">
         <v>155</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="6">
         <v>165</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="6">
         <v>173</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="6">
         <v>177</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="6">
         <v>188</v>
       </c>
     </row>
@@ -6042,719 +7203,718 @@
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="6">
         <v>165</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="6">
         <v>176</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="6">
         <v>180</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="6">
         <v>188</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="6">
         <v>195</v>
       </c>
-      <c r="H26" s="13"/>
     </row>
     <row r="31" spans="1:19">
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F31" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="G31" s="9" t="s">
+      <c r="G31" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="H31" s="9" t="s">
+      <c r="H31" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="I31" s="9" t="s">
+      <c r="I31" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="J31" s="9" t="s">
+      <c r="J31" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="K31" s="9" t="s">
+      <c r="K31" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="L31" s="9" t="s">
+      <c r="L31" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="M31" s="9" t="s">
+      <c r="M31" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="N31" s="9" t="s">
+      <c r="N31" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="O31" s="9" t="s">
+      <c r="O31" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="P31" s="9" t="s">
+      <c r="P31" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="Q31" s="9" t="s">
+      <c r="Q31" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="R31" s="9" t="s">
+      <c r="R31" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="S31" s="9" t="s">
+      <c r="S31" s="8" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:19">
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E32" s="9">
         <v>39.299999999999997</v>
       </c>
-      <c r="F32" s="10" t="s">
+      <c r="F32" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="G32" s="10" t="s">
+      <c r="G32" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="H32" s="10">
+      <c r="H32" s="9">
         <v>9</v>
       </c>
-      <c r="I32" s="10" t="s">
+      <c r="I32" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="J32" s="10">
+      <c r="J32" s="9">
         <v>57</v>
       </c>
-      <c r="K32" s="10">
+      <c r="K32" s="9">
         <v>31.3</v>
       </c>
-      <c r="L32" s="10">
+      <c r="L32" s="9">
         <v>6</v>
       </c>
-      <c r="M32" s="10">
+      <c r="M32" s="9">
         <v>43.2</v>
       </c>
-      <c r="N32" s="10">
+      <c r="N32" s="9">
         <v>4.2</v>
       </c>
-      <c r="O32" s="10">
+      <c r="O32" s="9">
         <v>10</v>
       </c>
-      <c r="P32" s="10">
+      <c r="P32" s="9">
         <v>107.8</v>
       </c>
-      <c r="Q32" s="10">
+      <c r="Q32" s="9">
         <v>71.5</v>
       </c>
-      <c r="R32" s="10">
+      <c r="R32" s="9">
         <v>39.5</v>
       </c>
-      <c r="S32" s="10">
+      <c r="S32" s="9">
         <v>60</v>
       </c>
     </row>
     <row r="33" spans="2:19">
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E33" s="9">
         <v>41.9</v>
       </c>
-      <c r="F33" s="10" t="s">
+      <c r="F33" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="G33" s="10" t="s">
+      <c r="G33" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="H33" s="10">
+      <c r="H33" s="9">
         <v>9</v>
       </c>
-      <c r="I33" s="10" t="s">
+      <c r="I33" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="J33" s="10">
+      <c r="J33" s="9">
         <v>59.5</v>
       </c>
-      <c r="K33" s="10">
+      <c r="K33" s="9">
         <v>31.3</v>
       </c>
-      <c r="L33" s="10">
+      <c r="L33" s="9">
         <v>6</v>
       </c>
-      <c r="M33" s="10">
+      <c r="M33" s="9">
         <v>43.2</v>
       </c>
-      <c r="N33" s="10">
+      <c r="N33" s="9">
         <v>4.2</v>
       </c>
-      <c r="O33" s="10">
+      <c r="O33" s="9">
         <v>10</v>
       </c>
-      <c r="P33" s="10">
+      <c r="P33" s="9">
         <v>110.3</v>
       </c>
-      <c r="Q33" s="10">
+      <c r="Q33" s="9">
         <v>75.5</v>
       </c>
-      <c r="R33" s="10">
+      <c r="R33" s="9">
         <v>42</v>
       </c>
-      <c r="S33" s="10">
+      <c r="S33" s="9">
         <v>60</v>
       </c>
     </row>
     <row r="34" spans="2:19">
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E34" s="9">
         <v>44.4</v>
       </c>
-      <c r="F34" s="10" t="s">
+      <c r="F34" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="G34" s="10" t="s">
+      <c r="G34" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="H34" s="10">
+      <c r="H34" s="9">
         <v>9</v>
       </c>
-      <c r="I34" s="10" t="s">
+      <c r="I34" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="J34" s="10">
+      <c r="J34" s="9">
         <v>61</v>
       </c>
-      <c r="K34" s="10">
+      <c r="K34" s="9">
         <v>31.3</v>
       </c>
-      <c r="L34" s="10">
+      <c r="L34" s="9">
         <v>6</v>
       </c>
-      <c r="M34" s="10">
+      <c r="M34" s="9">
         <v>43.2</v>
       </c>
-      <c r="N34" s="10">
+      <c r="N34" s="9">
         <v>4.2</v>
       </c>
-      <c r="O34" s="10">
+      <c r="O34" s="9">
         <v>10</v>
       </c>
-      <c r="P34" s="10">
+      <c r="P34" s="9">
         <v>111.8</v>
       </c>
-      <c r="Q34" s="10">
+      <c r="Q34" s="9">
         <v>76.5</v>
       </c>
-      <c r="R34" s="10">
+      <c r="R34" s="9">
         <v>43.5</v>
       </c>
-      <c r="S34" s="10">
+      <c r="S34" s="9">
         <v>60</v>
       </c>
     </row>
     <row r="35" spans="2:19">
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E35" s="9">
         <v>47</v>
       </c>
-      <c r="F35" s="10" t="s">
+      <c r="F35" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="G35" s="10" t="s">
+      <c r="G35" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="H35" s="10">
+      <c r="H35" s="9">
         <v>9</v>
       </c>
-      <c r="I35" s="10" t="s">
+      <c r="I35" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="J35" s="10">
+      <c r="J35" s="9">
         <v>62.5</v>
       </c>
-      <c r="K35" s="10">
+      <c r="K35" s="9">
         <v>31.3</v>
       </c>
-      <c r="L35" s="10">
+      <c r="L35" s="9">
         <v>6</v>
       </c>
-      <c r="M35" s="10">
+      <c r="M35" s="9">
         <v>43.2</v>
       </c>
-      <c r="N35" s="10">
+      <c r="N35" s="9">
         <v>4.2</v>
       </c>
-      <c r="O35" s="10">
+      <c r="O35" s="9">
         <v>10</v>
       </c>
-      <c r="P35" s="10">
+      <c r="P35" s="9">
         <v>113.3</v>
       </c>
-      <c r="Q35" s="10">
+      <c r="Q35" s="9">
         <v>78.400000000000006</v>
       </c>
-      <c r="R35" s="10">
+      <c r="R35" s="9">
         <v>45</v>
       </c>
-      <c r="S35" s="10">
+      <c r="S35" s="9">
         <v>60</v>
       </c>
     </row>
     <row r="36" spans="2:19">
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E36" s="9">
         <v>51</v>
       </c>
-      <c r="F36" s="10" t="s">
+      <c r="F36" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="G36" s="10" t="s">
+      <c r="G36" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="H36" s="10">
+      <c r="H36" s="9">
         <v>10.5</v>
       </c>
-      <c r="I36" s="10" t="s">
+      <c r="I36" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="J36" s="10">
+      <c r="J36" s="9">
         <v>65.900000000000006</v>
       </c>
-      <c r="K36" s="10">
+      <c r="K36" s="9">
         <v>31.3</v>
       </c>
-      <c r="L36" s="10">
+      <c r="L36" s="9">
         <v>6</v>
       </c>
-      <c r="M36" s="10">
+      <c r="M36" s="9">
         <v>43.2</v>
       </c>
-      <c r="N36" s="10">
+      <c r="N36" s="9">
         <v>4.2</v>
       </c>
-      <c r="O36" s="10">
+      <c r="O36" s="9">
         <v>10</v>
       </c>
-      <c r="P36" s="10">
+      <c r="P36" s="9">
         <v>116.8</v>
       </c>
-      <c r="Q36" s="10">
+      <c r="Q36" s="9">
         <v>81.400000000000006</v>
       </c>
-      <c r="R36" s="10">
+      <c r="R36" s="9">
         <v>48</v>
       </c>
-      <c r="S36" s="10">
+      <c r="S36" s="9">
         <v>61.4</v>
       </c>
     </row>
     <row r="40" spans="2:19">
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D40" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="E40" s="10" t="s">
+      <c r="E40" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="F40" s="10" t="s">
+      <c r="F40" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="G40" s="10" t="s">
+      <c r="G40" s="9" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="41" spans="2:19">
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="D41" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E41" s="10" t="s">
+      <c r="E41" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="F41" s="10" t="s">
+      <c r="F41" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G41" s="10" t="s">
+      <c r="G41" s="9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="42" spans="2:19">
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="D42" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="E42" s="10" t="s">
+      <c r="E42" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="F42" s="10" t="s">
+      <c r="F42" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="G42" s="10" t="s">
+      <c r="G42" s="9" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="43" spans="2:19">
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="C43" s="10">
+      <c r="C43" s="9">
         <v>39.299999999999997</v>
       </c>
-      <c r="D43" s="10">
+      <c r="D43" s="9">
         <v>41.9</v>
       </c>
-      <c r="E43" s="10">
+      <c r="E43" s="9">
         <v>44.4</v>
       </c>
-      <c r="F43" s="10">
+      <c r="F43" s="9">
         <v>47</v>
       </c>
-      <c r="G43" s="10">
+      <c r="G43" s="9">
         <v>51</v>
       </c>
     </row>
     <row r="44" spans="2:19">
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D44" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="E44" s="10" t="s">
+      <c r="E44" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="F44" s="10" t="s">
+      <c r="F44" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="G44" s="10" t="s">
+      <c r="G44" s="9" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="45" spans="2:19">
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C45" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="D45" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="E45" s="10" t="s">
+      <c r="E45" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="F45" s="10" t="s">
+      <c r="F45" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="G45" s="10" t="s">
+      <c r="G45" s="9" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="46" spans="2:19">
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="C46" s="10">
+      <c r="C46" s="9">
         <v>9</v>
       </c>
-      <c r="D46" s="10">
+      <c r="D46" s="9">
         <v>9</v>
       </c>
-      <c r="E46" s="10">
+      <c r="E46" s="9">
         <v>9</v>
       </c>
-      <c r="F46" s="10">
+      <c r="F46" s="9">
         <v>9</v>
       </c>
-      <c r="G46" s="10">
+      <c r="G46" s="9">
         <v>10.5</v>
       </c>
     </row>
     <row r="47" spans="2:19">
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C47" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D47" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="E47" s="10" t="s">
+      <c r="E47" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="F47" s="10" t="s">
+      <c r="F47" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="G47" s="10" t="s">
+      <c r="G47" s="9" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="48" spans="2:19">
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="C48" s="10">
+      <c r="C48" s="9">
         <v>57</v>
       </c>
-      <c r="D48" s="10">
+      <c r="D48" s="9">
         <v>59.5</v>
       </c>
-      <c r="E48" s="10">
+      <c r="E48" s="9">
         <v>61</v>
       </c>
-      <c r="F48" s="10">
+      <c r="F48" s="9">
         <v>62.5</v>
       </c>
-      <c r="G48" s="10">
+      <c r="G48" s="9">
         <v>65.900000000000006</v>
       </c>
     </row>
     <row r="49" spans="2:7">
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="C49" s="10">
+      <c r="C49" s="9">
         <v>31.3</v>
       </c>
-      <c r="D49" s="10">
+      <c r="D49" s="9">
         <v>31.3</v>
       </c>
-      <c r="E49" s="10">
+      <c r="E49" s="9">
         <v>31.3</v>
       </c>
-      <c r="F49" s="10">
+      <c r="F49" s="9">
         <v>31.3</v>
       </c>
-      <c r="G49" s="10">
+      <c r="G49" s="9">
         <v>31.3</v>
       </c>
     </row>
     <row r="50" spans="2:7">
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="C50" s="10">
+      <c r="C50" s="9">
         <v>6</v>
       </c>
-      <c r="D50" s="10">
+      <c r="D50" s="9">
         <v>6</v>
       </c>
-      <c r="E50" s="10">
+      <c r="E50" s="9">
         <v>6</v>
       </c>
-      <c r="F50" s="10">
+      <c r="F50" s="9">
         <v>6</v>
       </c>
-      <c r="G50" s="10">
+      <c r="G50" s="9">
         <v>6</v>
       </c>
     </row>
     <row r="51" spans="2:7">
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="C51" s="10">
+      <c r="C51" s="9">
         <v>43.2</v>
       </c>
-      <c r="D51" s="10">
+      <c r="D51" s="9">
         <v>43.2</v>
       </c>
-      <c r="E51" s="10">
+      <c r="E51" s="9">
         <v>43.2</v>
       </c>
-      <c r="F51" s="10">
+      <c r="F51" s="9">
         <v>43.2</v>
       </c>
-      <c r="G51" s="10">
+      <c r="G51" s="9">
         <v>43.2</v>
       </c>
     </row>
     <row r="52" spans="2:7">
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="C52" s="10">
+      <c r="C52" s="9">
         <v>4.2</v>
       </c>
-      <c r="D52" s="10">
+      <c r="D52" s="9">
         <v>4.2</v>
       </c>
-      <c r="E52" s="10">
+      <c r="E52" s="9">
         <v>4.2</v>
       </c>
-      <c r="F52" s="10">
+      <c r="F52" s="9">
         <v>4.2</v>
       </c>
-      <c r="G52" s="10">
+      <c r="G52" s="9">
         <v>4.2</v>
       </c>
     </row>
     <row r="53" spans="2:7">
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="C53" s="10">
+      <c r="C53" s="9">
         <v>10</v>
       </c>
-      <c r="D53" s="10">
+      <c r="D53" s="9">
         <v>10</v>
       </c>
-      <c r="E53" s="10">
+      <c r="E53" s="9">
         <v>10</v>
       </c>
-      <c r="F53" s="10">
+      <c r="F53" s="9">
         <v>10</v>
       </c>
-      <c r="G53" s="10">
+      <c r="G53" s="9">
         <v>10</v>
       </c>
     </row>
     <row r="54" spans="2:7">
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="C54" s="10">
+      <c r="C54" s="9">
         <v>107.8</v>
       </c>
-      <c r="D54" s="10">
+      <c r="D54" s="9">
         <v>110.3</v>
       </c>
-      <c r="E54" s="10">
+      <c r="E54" s="9">
         <v>111.8</v>
       </c>
-      <c r="F54" s="10">
+      <c r="F54" s="9">
         <v>113.3</v>
       </c>
-      <c r="G54" s="10">
+      <c r="G54" s="9">
         <v>116.8</v>
       </c>
     </row>
     <row r="55" spans="2:7">
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="C55" s="10">
+      <c r="C55" s="9">
         <v>71.5</v>
       </c>
-      <c r="D55" s="10">
+      <c r="D55" s="9">
         <v>75.5</v>
       </c>
-      <c r="E55" s="10">
+      <c r="E55" s="9">
         <v>76.5</v>
       </c>
-      <c r="F55" s="10">
+      <c r="F55" s="9">
         <v>78.400000000000006</v>
       </c>
-      <c r="G55" s="10">
+      <c r="G55" s="9">
         <v>81.400000000000006</v>
       </c>
     </row>
     <row r="56" spans="2:7">
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="C56" s="10">
+      <c r="C56" s="9">
         <v>39.5</v>
       </c>
-      <c r="D56" s="10">
+      <c r="D56" s="9">
         <v>42</v>
       </c>
-      <c r="E56" s="10">
+      <c r="E56" s="9">
         <v>43.5</v>
       </c>
-      <c r="F56" s="10">
+      <c r="F56" s="9">
         <v>45</v>
       </c>
-      <c r="G56" s="10">
+      <c r="G56" s="9">
         <v>48</v>
       </c>
     </row>
     <row r="57" spans="2:7">
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="C57" s="10">
+      <c r="C57" s="9">
         <v>60</v>
       </c>
-      <c r="D57" s="10">
+      <c r="D57" s="9">
         <v>60</v>
       </c>
-      <c r="E57" s="10">
+      <c r="E57" s="9">
         <v>60</v>
       </c>
-      <c r="F57" s="10">
+      <c r="F57" s="9">
         <v>60</v>
       </c>
-      <c r="G57" s="10">
+      <c r="G57" s="9">
         <v>61.4</v>
       </c>
     </row>
